--- a/1_calculation_scripts/1_1_argon/results/mie_results_vle_fluid.xlsx
+++ b/1_calculation_scripts/1_1_argon/results/mie_results_vle_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.8193006426204588</v>
       </c>
       <c r="D2">
-        <v>155.7306550011542</v>
+        <v>155.730655001154</v>
       </c>
       <c r="E2">
-        <v>6072176.680160649</v>
+        <v>6072176.680160622</v>
       </c>
       <c r="F2">
-        <v>13819.01812218658</v>
+        <v>13819.01812218655</v>
       </c>
       <c r="G2">
         <v>3.433763434159768</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>49.99038689579527</v>
       </c>
@@ -585,10 +597,16 @@
         <v>0.1360112309982829</v>
       </c>
       <c r="M2">
+        <v>0.1360112309982829</v>
+      </c>
+      <c r="N2">
         <v>1290.50119212548</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>51.05845468164182</v>
       </c>
@@ -626,74 +644,86 @@
         <v>0.1349903202205736</v>
       </c>
       <c r="M3">
+        <v>0.1349903202205736</v>
+      </c>
+      <c r="N3">
         <v>1223.480039319594</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>52.12652246748838</v>
+        <v>52.12652246748837</v>
       </c>
       <c r="B4">
-        <v>86.17480424445924</v>
+        <v>86.1748042444589</v>
       </c>
       <c r="C4">
-        <v>0.1988529827123127</v>
+        <v>0.198852982712312</v>
       </c>
       <c r="D4">
         <v>42390.23966211207</v>
       </c>
       <c r="E4">
-        <v>8776.095707933722</v>
+        <v>8776.095707933728</v>
       </c>
       <c r="F4">
-        <v>8342.738366130996</v>
+        <v>8342.738366131</v>
       </c>
       <c r="G4">
-        <v>47.35452168889986</v>
+        <v>47.35452168889999</v>
       </c>
       <c r="H4">
-        <v>140.8451134263121</v>
+        <v>140.8451134263123</v>
       </c>
       <c r="I4">
-        <v>1.154957557983744E-09</v>
+        <v>1.154957557983745E-09</v>
       </c>
       <c r="J4">
         <v>4.926302837660662E-10</v>
       </c>
       <c r="K4">
-        <v>0.001171521520424059</v>
+        <v>0.001171521520424058</v>
       </c>
       <c r="L4">
         <v>0.1341207000598354</v>
       </c>
       <c r="M4">
-        <v>1175.312777213671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.1341207000598354</v>
+      </c>
+      <c r="N4">
+        <v>1175.31277721367</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>53.19459025333493</v>
+        <v>53.19459025333492</v>
       </c>
       <c r="B5">
-        <v>128.972401230601</v>
+        <v>128.9724012306008</v>
       </c>
       <c r="C5">
-        <v>0.2916476198632698</v>
+        <v>0.2916476198632693</v>
       </c>
       <c r="D5">
         <v>41959.44230260203</v>
       </c>
       <c r="E5">
-        <v>8629.333156061453</v>
+        <v>8629.333156061455</v>
       </c>
       <c r="F5">
-        <v>8187.116261432594</v>
+        <v>8187.116261432595</v>
       </c>
       <c r="G5">
-        <v>47.88934078553132</v>
+        <v>47.88934078553134</v>
       </c>
       <c r="H5">
-        <v>133.812006540226</v>
+        <v>133.8120065402261</v>
       </c>
       <c r="I5">
         <v>1.177146631455515E-09</v>
@@ -708,18 +738,24 @@
         <v>0.133392595620859</v>
       </c>
       <c r="M5">
+        <v>0.133392595620859</v>
+      </c>
+      <c r="N5">
         <v>1139.321178609927</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>54.26265803918149</v>
+        <v>54.26265803918148</v>
       </c>
       <c r="B6">
-        <v>188.7834598904627</v>
+        <v>188.783459890462</v>
       </c>
       <c r="C6">
-        <v>0.4185201882096765</v>
+        <v>0.4185201882096752</v>
       </c>
       <c r="D6">
         <v>41551.16396669615</v>
@@ -731,7 +767,7 @@
         <v>8039.145587098848</v>
       </c>
       <c r="G6">
-        <v>47.41371249971446</v>
+        <v>47.41371249971439</v>
       </c>
       <c r="H6">
         <v>126.5307758492365</v>
@@ -749,18 +785,24 @@
         <v>0.132796410382895</v>
       </c>
       <c r="M6">
+        <v>0.132796410382895</v>
+      </c>
+      <c r="N6">
         <v>1111.661436944649</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>55.33072582502804</v>
+        <v>55.33072582502803</v>
       </c>
       <c r="B7">
-        <v>270.732153262342</v>
+        <v>270.7321532623411</v>
       </c>
       <c r="C7">
-        <v>0.5886518832000531</v>
+        <v>0.5886518832000515</v>
       </c>
       <c r="D7">
         <v>41163.53709160252</v>
@@ -772,7 +814,7 @@
         <v>7898.987022323466</v>
       </c>
       <c r="G7">
-        <v>46.19443132020736</v>
+        <v>46.19443132020737</v>
       </c>
       <c r="H7">
         <v>119.1851570839085</v>
@@ -790,30 +832,36 @@
         <v>0.1323223236618125</v>
       </c>
       <c r="M7">
+        <v>0.1323223236618125</v>
+      </c>
+      <c r="N7">
         <v>1089.94706975995</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>56.3987936108746</v>
+        <v>56.39879361087458</v>
       </c>
       <c r="B8">
-        <v>380.994928636558</v>
+        <v>380.9949286365562</v>
       </c>
       <c r="C8">
-        <v>0.8127827946654633</v>
+        <v>0.8127827946654599</v>
       </c>
       <c r="D8">
-        <v>40794.86190060756</v>
+        <v>40794.86190060757</v>
       </c>
       <c r="E8">
-        <v>8235.370354816629</v>
+        <v>8235.370354816632</v>
       </c>
       <c r="F8">
-        <v>7766.626010866145</v>
+        <v>7766.626010866147</v>
       </c>
       <c r="G8">
-        <v>44.44932640201434</v>
+        <v>44.44932640201436</v>
       </c>
       <c r="H8">
         <v>111.9197238178174</v>
@@ -822,7 +870,7 @@
         <v>1.24347249516352E-09</v>
       </c>
       <c r="J8">
-        <v>5.591704624893756E-10</v>
+        <v>5.591704624893755E-10</v>
       </c>
       <c r="K8">
         <v>0.001139655575133179</v>
@@ -831,12 +879,18 @@
         <v>0.1319599769918945</v>
       </c>
       <c r="M8">
+        <v>0.1319599769918945</v>
+      </c>
+      <c r="N8">
         <v>1072.606438570403</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>57.46686139672115</v>
+        <v>57.46686139672114</v>
       </c>
       <c r="B9">
         <v>526.9106313894612</v>
@@ -848,10 +902,10 @@
         <v>40443.58911574823</v>
       </c>
       <c r="E9">
-        <v>8119.474632080403</v>
+        <v>8119.474632080407</v>
       </c>
       <c r="F9">
-        <v>7641.911931821118</v>
+        <v>7641.911931821121</v>
       </c>
       <c r="G9">
         <v>42.35345189121325</v>
@@ -869,36 +923,42 @@
         <v>0.001119054715633705</v>
       </c>
       <c r="L9">
-        <v>0.1316982828273975</v>
+        <v>0.1316982828273974</v>
       </c>
       <c r="M9">
+        <v>0.1316982828273974</v>
+      </c>
+      <c r="N9">
         <v>1058.553452418243</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>58.5349291825677</v>
+        <v>58.53492918256769</v>
       </c>
       <c r="B10">
-        <v>717.0876900046434</v>
+        <v>717.0876900046421</v>
       </c>
       <c r="C10">
-        <v>1.474328399784732</v>
+        <v>1.47432839978473</v>
       </c>
       <c r="D10">
         <v>40108.30466150255</v>
       </c>
       <c r="E10">
-        <v>8010.956604810944</v>
+        <v>8010.956604810945</v>
       </c>
       <c r="F10">
-        <v>7524.591877015116</v>
+        <v>7524.591877015117</v>
       </c>
       <c r="G10">
         <v>40.0452013145019</v>
       </c>
       <c r="H10">
-        <v>98.04183790779364</v>
+        <v>98.04183790779365</v>
       </c>
       <c r="I10">
         <v>1.288225382405902E-09</v>
@@ -913,39 +973,45 @@
         <v>0.1315253745214633</v>
       </c>
       <c r="M10">
+        <v>0.1315253745214633</v>
+      </c>
+      <c r="N10">
         <v>1047.0062229724</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>59.60299696841426</v>
+        <v>59.60299696841425</v>
       </c>
       <c r="B11">
-        <v>961.5072378140546</v>
+        <v>961.5072378140583</v>
       </c>
       <c r="C11">
-        <v>1.941765815560924</v>
+        <v>1.941765815560932</v>
       </c>
       <c r="D11">
         <v>39787.71609948448</v>
       </c>
       <c r="E11">
-        <v>7909.486533568992</v>
+        <v>7909.486533568994</v>
       </c>
       <c r="F11">
-        <v>7414.339124152179</v>
+        <v>7414.339124152178</v>
       </c>
       <c r="G11">
-        <v>37.63206509066954</v>
+        <v>37.63206509066943</v>
       </c>
       <c r="H11">
-        <v>91.5676076607018</v>
+        <v>91.5676076607017</v>
       </c>
       <c r="I11">
-        <v>1.310980749584938E-09</v>
+        <v>1.310980749584939E-09</v>
       </c>
       <c r="J11">
-        <v>6.187741164076767E-10</v>
+        <v>6.187741164076762E-10</v>
       </c>
       <c r="K11">
         <v>0.001062941664566439</v>
@@ -954,39 +1020,45 @@
         <v>0.1314286990207698</v>
       </c>
       <c r="M11">
-        <v>1037.381444537325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.1314286990207698</v>
+      </c>
+      <c r="N11">
+        <v>1037.381444537326</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>60.67106475426081</v>
+        <v>60.6710647542608</v>
       </c>
       <c r="B12">
-        <v>1271.621170042168</v>
+        <v>1271.621170042175</v>
       </c>
       <c r="C12">
-        <v>2.523360146041728</v>
+        <v>2.523360146041743</v>
       </c>
       <c r="D12">
         <v>39480.64057469768</v>
       </c>
       <c r="E12">
-        <v>7814.684068338088</v>
+        <v>7814.684068338087</v>
       </c>
       <c r="F12">
         <v>7310.776650345048</v>
       </c>
       <c r="G12">
-        <v>35.19586749860802</v>
+        <v>35.19586749860799</v>
       </c>
       <c r="H12">
-        <v>85.45927227872488</v>
+        <v>85.45927227872491</v>
       </c>
       <c r="I12">
         <v>1.334083777089909E-09</v>
       </c>
       <c r="J12">
-        <v>6.40928847384538E-10</v>
+        <v>6.409288473845374E-10</v>
       </c>
       <c r="K12">
         <v>0.001027973973942237</v>
@@ -995,59 +1067,71 @@
         <v>0.1313952361276951</v>
       </c>
       <c r="M12">
-        <v>1029.230131579293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.1313952361276951</v>
+      </c>
+      <c r="N12">
+        <v>1029.230131579294</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>61.73913254010737</v>
+        <v>61.73913254010736</v>
       </c>
       <c r="B13">
-        <v>1660.444238885538</v>
+        <v>1660.444238885534</v>
       </c>
       <c r="C13">
-        <v>3.238731633690826</v>
+        <v>3.238731633690819</v>
       </c>
       <c r="D13">
         <v>39185.99408462628</v>
       </c>
       <c r="E13">
-        <v>7726.137291308318</v>
+        <v>7726.137291308319</v>
       </c>
       <c r="F13">
-        <v>7213.496174168722</v>
+        <v>7213.496174168724</v>
       </c>
       <c r="G13">
-        <v>32.79740587283347</v>
+        <v>32.79740587283356</v>
       </c>
       <c r="H13">
-        <v>79.73800081646772</v>
+        <v>79.73800081646785</v>
       </c>
       <c r="I13">
-        <v>1.357604598420413E-09</v>
+        <v>1.357604598420412E-09</v>
       </c>
       <c r="J13">
         <v>6.64380601274851E-10</v>
       </c>
       <c r="K13">
-        <v>0.0009890101871891589</v>
+        <v>0.0009890101871891594</v>
       </c>
       <c r="L13">
         <v>0.1314118135344617</v>
       </c>
       <c r="M13">
+        <v>0.1314118135344617</v>
+      </c>
+      <c r="N13">
         <v>1022.197198593282</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>62.80720032595391</v>
+        <v>62.8072003259539</v>
       </c>
       <c r="B14">
-        <v>2142.639386861901</v>
+        <v>2142.639386861886</v>
       </c>
       <c r="C14">
-        <v>4.109399423731938</v>
+        <v>4.10939942373191</v>
       </c>
       <c r="D14">
         <v>38902.78190912403</v>
@@ -1056,19 +1140,19 @@
         <v>7643.417842808873</v>
       </c>
       <c r="F14">
-        <v>7122.073277933499</v>
+        <v>7122.073277933501</v>
       </c>
       <c r="G14">
-        <v>30.48047485399857</v>
+        <v>30.48047485399858</v>
       </c>
       <c r="H14">
-        <v>74.41244217794448</v>
+        <v>74.41244217794453</v>
       </c>
       <c r="I14">
-        <v>1.381612499222162E-09</v>
+        <v>1.381612499222163E-09</v>
       </c>
       <c r="J14">
-        <v>6.892279854222827E-10</v>
+        <v>6.892279854222819E-10</v>
       </c>
       <c r="K14">
         <v>0.0009466994871142792</v>
@@ -1077,18 +1161,24 @@
         <v>0.1314654774332183</v>
       </c>
       <c r="M14">
-        <v>1015.995425405632</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.1314654774332183</v>
+      </c>
+      <c r="N14">
+        <v>1015.995425405631</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>63.87526811180047</v>
+        <v>63.87526811180046</v>
       </c>
       <c r="B15">
-        <v>2734.595614991443</v>
+        <v>2734.595614991447</v>
       </c>
       <c r="C15">
-        <v>5.158793737322682</v>
+        <v>5.158793737322691</v>
       </c>
       <c r="D15">
         <v>38630.09006138251</v>
@@ -1097,39 +1187,45 @@
         <v>7566.092690871381</v>
       </c>
       <c r="F15">
-        <v>7036.079170844429</v>
+        <v>7036.079170844428</v>
       </c>
       <c r="G15">
-        <v>28.2752975599633</v>
+        <v>28.27529755996331</v>
       </c>
       <c r="H15">
-        <v>69.48161893487796</v>
+        <v>69.481618934878</v>
       </c>
       <c r="I15">
-        <v>1.406176049919782E-09</v>
+        <v>1.406176049919784E-09</v>
       </c>
       <c r="J15">
         <v>7.155737276430103E-10</v>
       </c>
       <c r="K15">
-        <v>0.0009018251026671306</v>
+        <v>0.0009018251026671312</v>
       </c>
       <c r="L15">
         <v>0.1315438752297364</v>
       </c>
       <c r="M15">
+        <v>0.1315438752297364</v>
+      </c>
+      <c r="N15">
         <v>1010.388434619531</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>64.94333589764703</v>
+        <v>64.94333589764702</v>
       </c>
       <c r="B16">
-        <v>3454.497782478667</v>
+        <v>3454.49778247867</v>
       </c>
       <c r="C16">
-        <v>6.412257362272154</v>
+        <v>6.412257362272161</v>
       </c>
       <c r="D16">
         <v>38367.07763908081</v>
@@ -1138,13 +1234,13 @@
         <v>7493.733079169298</v>
       </c>
       <c r="F16">
-        <v>6955.089628031137</v>
+        <v>6955.089628031134</v>
       </c>
       <c r="G16">
-        <v>26.20140874938308</v>
+        <v>26.20140874938314</v>
       </c>
       <c r="H16">
-        <v>64.93734061703086</v>
+        <v>64.93734061703093</v>
       </c>
       <c r="I16">
         <v>1.431363290494362E-09</v>
@@ -1153,528 +1249,606 @@
         <v>7.435244493069543E-10</v>
       </c>
       <c r="K16">
-        <v>0.0008552679191302676</v>
+        <v>0.0008552679191302679</v>
       </c>
       <c r="L16">
-        <v>0.1316356092661901</v>
+        <v>0.13163560926619</v>
       </c>
       <c r="M16">
-        <v>1005.179478328802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.13163560926619</v>
+      </c>
+      <c r="N16">
+        <v>1005.179478328801</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>66.01140368349358</v>
+        <v>66.01140368349357</v>
       </c>
       <c r="B17">
-        <v>4322.387840957223</v>
+        <v>4322.387840957278</v>
       </c>
       <c r="C17">
-        <v>7.897037463999684</v>
+        <v>7.897037463999785</v>
       </c>
       <c r="D17">
-        <v>38112.96997074654</v>
+        <v>38112.96997074655</v>
       </c>
       <c r="E17">
-        <v>7425.921142392008</v>
+        <v>7425.921142392009</v>
       </c>
       <c r="F17">
-        <v>6878.691594791581</v>
+        <v>6878.691594791584</v>
       </c>
       <c r="G17">
-        <v>24.27004691397833</v>
+        <v>24.27004691397834</v>
       </c>
       <c r="H17">
         <v>60.76618468870552</v>
       </c>
       <c r="I17">
-        <v>1.45724195963188E-09</v>
+        <v>1.457241959631879E-09</v>
       </c>
       <c r="J17">
-        <v>7.731903526972244E-10</v>
+        <v>7.731903526972237E-10</v>
       </c>
       <c r="K17">
-        <v>0.0008079545771040184</v>
+        <v>0.000807954577104019</v>
       </c>
       <c r="L17">
         <v>0.1317305271542203</v>
       </c>
       <c r="M17">
+        <v>0.1317305271542203</v>
+      </c>
+      <c r="N17">
         <v>1000.204032430836</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>67.07947146934013</v>
+        <v>67.07947146934012</v>
       </c>
       <c r="B18">
-        <v>5360.217119379285</v>
+        <v>5360.217119379287</v>
       </c>
       <c r="C18">
-        <v>9.642268791067078</v>
+        <v>9.642268791067085</v>
       </c>
       <c r="D18">
         <v>37867.0524658896</v>
       </c>
       <c r="E18">
-        <v>7362.254622817007</v>
+        <v>7362.254622817005</v>
       </c>
       <c r="F18">
-        <v>6806.487890133947</v>
+        <v>6806.487890133946</v>
       </c>
       <c r="G18">
-        <v>22.48611637069457</v>
+        <v>22.48611637069463</v>
       </c>
       <c r="H18">
-        <v>56.95109870340668</v>
+        <v>56.95109870340676</v>
       </c>
       <c r="I18">
         <v>1.483879761504657E-09</v>
       </c>
       <c r="J18">
-        <v>8.04684815501866E-10</v>
+        <v>8.046848155018645E-10</v>
       </c>
       <c r="K18">
-        <v>0.0007607967194849721</v>
+        <v>0.0007607967194849731</v>
       </c>
       <c r="L18">
-        <v>0.1318199237419221</v>
+        <v>0.1318199237419222</v>
       </c>
       <c r="M18">
-        <v>995.3248875802597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.1318199237419222</v>
+      </c>
+      <c r="N18">
+        <v>995.3248875802593</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>68.14753925518669</v>
+        <v>68.14753925518667</v>
       </c>
       <c r="B19">
-        <v>6591.889393872495</v>
+        <v>6591.889393872397</v>
       </c>
       <c r="C19">
-        <v>11.67894940858304</v>
+        <v>11.67894940858286</v>
       </c>
       <c r="D19">
-        <v>37628.66508901273</v>
+        <v>37628.66508901274</v>
       </c>
       <c r="E19">
-        <v>7302.350063854719</v>
+        <v>7302.35006385472</v>
       </c>
       <c r="F19">
-        <v>6738.100385737004</v>
+        <v>6738.100385737006</v>
       </c>
       <c r="G19">
-        <v>20.84977958436141</v>
+        <v>20.8497795843614</v>
       </c>
       <c r="H19">
-        <v>53.47267728263642</v>
+        <v>53.47267728263646</v>
       </c>
       <c r="I19">
         <v>1.511344664540152E-09</v>
       </c>
       <c r="J19">
-        <v>8.381238869515579E-10</v>
+        <v>8.381238869515564E-10</v>
       </c>
       <c r="K19">
-        <v>0.0007146307127317989</v>
+        <v>0.0007146307127318002</v>
       </c>
       <c r="L19">
         <v>0.1318966404562845</v>
       </c>
       <c r="M19">
-        <v>990.4288407985473</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.1318966404562845</v>
+      </c>
+      <c r="N19">
+        <v>990.4288407985476</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>69.21560704103325</v>
+        <v>69.21560704103322</v>
       </c>
       <c r="B20">
-        <v>8043.294597776488</v>
+        <v>8043.294597776433</v>
       </c>
       <c r="C20">
-        <v>14.03991013779078</v>
+        <v>14.03991013779069</v>
       </c>
       <c r="D20">
         <v>37397.19738749172</v>
       </c>
       <c r="E20">
-        <v>7245.844800023119</v>
+        <v>7245.844800023123</v>
       </c>
       <c r="F20">
-        <v>6673.171980145039</v>
+        <v>6673.171980145041</v>
       </c>
       <c r="G20">
-        <v>19.3577361402253</v>
+        <v>19.3577361402254</v>
       </c>
       <c r="H20">
-        <v>50.31016461818363</v>
+        <v>50.31016461818376</v>
       </c>
       <c r="I20">
-        <v>1.539705227629817E-09</v>
+        <v>1.539705227629818E-09</v>
       </c>
       <c r="J20">
-        <v>8.736256823607369E-10</v>
+        <v>8.736256823607359E-10</v>
       </c>
       <c r="K20">
-        <v>0.0006701674048264482</v>
+        <v>0.0006701674048264494</v>
       </c>
       <c r="L20">
-        <v>0.1319550586184778</v>
+        <v>0.1319550586184777</v>
       </c>
       <c r="M20">
-        <v>985.4243562121867</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.1319550586184777</v>
+      </c>
+      <c r="N20">
+        <v>985.4243562121854</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>70.2836748268798</v>
+        <v>70.28367482687977</v>
       </c>
       <c r="B21">
-        <v>9742.33314741432</v>
+        <v>9742.333147414281</v>
       </c>
       <c r="C21">
-        <v>16.759778909589</v>
+        <v>16.75977890958895</v>
       </c>
       <c r="D21">
         <v>37172.08401182362</v>
       </c>
       <c r="E21">
-        <v>7192.398010690038</v>
+        <v>7192.398010690034</v>
       </c>
       <c r="F21">
         <v>6611.367635895035</v>
       </c>
       <c r="G21">
-        <v>18.00423940405297</v>
+        <v>18.00423940405301</v>
       </c>
       <c r="H21">
-        <v>47.44222856669462</v>
+        <v>47.44222856669472</v>
       </c>
       <c r="I21">
-        <v>1.569030950300321E-09</v>
+        <v>1.569030950300319E-09</v>
       </c>
       <c r="J21">
-        <v>9.113096756716032E-10</v>
+        <v>9.113096756716022E-10</v>
       </c>
       <c r="K21">
-        <v>0.0006279591041053295</v>
+        <v>0.0006279591041053309</v>
       </c>
       <c r="L21">
-        <v>0.1319909933609708</v>
+        <v>0.1319909933609707</v>
       </c>
       <c r="M21">
-        <v>980.239745648253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.1319909933609707</v>
+      </c>
+      <c r="N21">
+        <v>980.2397456482537</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>71.35174261272635</v>
+        <v>71.35174261272633</v>
       </c>
       <c r="B22">
-        <v>11718.93097561042</v>
+        <v>11718.9309756103</v>
       </c>
       <c r="C22">
-        <v>19.87494125238416</v>
+        <v>19.87494125238398</v>
       </c>
       <c r="D22">
-        <v>36952.80067409057</v>
+        <v>36952.80067409058</v>
       </c>
       <c r="E22">
-        <v>7141.691058269984</v>
+        <v>7141.691058269986</v>
       </c>
       <c r="F22">
-        <v>6552.374700614215</v>
+        <v>6552.374700614217</v>
       </c>
       <c r="G22">
-        <v>16.78189589185461</v>
+        <v>16.7818958918546</v>
       </c>
       <c r="H22">
-        <v>44.84754704181049</v>
+        <v>44.84754704181046</v>
       </c>
       <c r="I22">
-        <v>1.599392644387229E-09</v>
+        <v>1.599392644387228E-09</v>
       </c>
       <c r="J22">
-        <v>9.512958930155178E-10</v>
+        <v>9.512958930155166E-10</v>
       </c>
       <c r="K22">
-        <v>0.0005883868385318572</v>
+        <v>0.0005883868385318588</v>
       </c>
       <c r="L22">
         <v>0.132001503136417</v>
       </c>
       <c r="M22">
+        <v>0.132001503136417</v>
+      </c>
+      <c r="N22">
         <v>974.8215567222088</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>72.41981039857292</v>
+        <v>72.41981039857289</v>
       </c>
       <c r="B23">
-        <v>14005.04547443836</v>
+        <v>14005.04547443834</v>
       </c>
       <c r="C23">
-        <v>23.42349813016485</v>
+        <v>23.42349813016483</v>
       </c>
       <c r="D23">
-        <v>36738.86049685771</v>
+        <v>36738.86049685772</v>
       </c>
       <c r="E23">
-        <v>7093.427290818973</v>
+        <v>7093.427290818975</v>
       </c>
       <c r="F23">
-        <v>6495.902692363664</v>
+        <v>6495.902692363666</v>
       </c>
       <c r="G23">
-        <v>15.68228631773826</v>
+        <v>15.68228631773834</v>
       </c>
       <c r="H23">
-        <v>42.50524192161868</v>
+        <v>42.50524192161879</v>
       </c>
       <c r="I23">
-        <v>1.630862825706094E-09</v>
+        <v>1.630862825706092E-09</v>
       </c>
       <c r="J23">
-        <v>9.937040142242806E-10</v>
+        <v>9.937040142242793E-10</v>
       </c>
       <c r="K23">
-        <v>0.0005516665695629563</v>
+        <v>0.000551666569562957</v>
       </c>
       <c r="L23">
         <v>0.1319846358056564</v>
       </c>
       <c r="M23">
-        <v>969.1329661479016</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.1319846358056564</v>
+      </c>
+      <c r="N23">
+        <v>969.1329661479014</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>73.48787818441947</v>
+        <v>73.48787818441944</v>
       </c>
       <c r="B24">
-        <v>16634.66264850538</v>
+        <v>16634.66264850528</v>
       </c>
       <c r="C24">
-        <v>27.4452223255486</v>
+        <v>27.44522232554844</v>
       </c>
       <c r="D24">
         <v>36529.8107102686</v>
       </c>
       <c r="E24">
-        <v>7047.331454054217</v>
+        <v>7047.331454054218</v>
       </c>
       <c r="F24">
-        <v>6441.682694561881</v>
+        <v>6441.68269456188</v>
       </c>
       <c r="G24">
-        <v>14.69644155193412</v>
+        <v>14.69644155193417</v>
       </c>
       <c r="H24">
-        <v>40.39519044382416</v>
+        <v>40.39519044382424</v>
       </c>
       <c r="I24">
-        <v>1.66351612510308E-09</v>
+        <v>1.663516125103081E-09</v>
       </c>
       <c r="J24">
         <v>1.038652393523036E-09</v>
       </c>
       <c r="K24">
-        <v>0.0005178697627821264</v>
+        <v>0.0005178697627821268</v>
       </c>
       <c r="L24">
         <v>0.131939135521684</v>
       </c>
       <c r="M24">
-        <v>963.1520670549176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.131939135521684</v>
+      </c>
+      <c r="N24">
+        <v>963.1520670549171</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>74.55594597026602</v>
+        <v>74.555945970266</v>
       </c>
       <c r="B25">
-        <v>19643.78586824332</v>
+        <v>19643.78586824327</v>
       </c>
       <c r="C25">
-        <v>31.98151452626945</v>
+        <v>31.98151452626937</v>
       </c>
       <c r="D25">
         <v>36325.22965994378</v>
       </c>
       <c r="E25">
-        <v>7003.148828356821</v>
+        <v>7003.148828356823</v>
       </c>
       <c r="F25">
-        <v>6389.46647632223</v>
+        <v>6389.466476322229</v>
       </c>
       <c r="G25">
-        <v>13.81520149212941</v>
+        <v>13.81520149212946</v>
       </c>
       <c r="H25">
-        <v>38.49823925820799</v>
+        <v>38.49823925820802</v>
       </c>
       <c r="I25">
-        <v>1.697429719089104E-09</v>
+        <v>1.697429719089107E-09</v>
       </c>
       <c r="J25">
         <v>1.086257015142171E-09</v>
       </c>
       <c r="K25">
-        <v>0.0004869522582983211</v>
+        <v>0.0004869522582983214</v>
       </c>
       <c r="L25">
-        <v>0.1318641350940882</v>
+        <v>0.1318641350940881</v>
       </c>
       <c r="M25">
-        <v>956.8700129902661</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.1318641350940881</v>
+      </c>
+      <c r="N25">
+        <v>956.8700129902646</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>75.62401375611257</v>
+        <v>75.62401375611255</v>
       </c>
       <c r="B26">
-        <v>23070.41668779854</v>
+        <v>23070.41668779791</v>
       </c>
       <c r="C26">
-        <v>37.07536022432163</v>
+        <v>37.07536022432063</v>
       </c>
       <c r="D26">
         <v>36124.72409252638</v>
       </c>
       <c r="E26">
-        <v>6960.64418175731</v>
+        <v>6960.644181757312</v>
       </c>
       <c r="F26">
-        <v>6339.02542944549</v>
+        <v>6339.025429445491</v>
       </c>
       <c r="G26">
-        <v>13.0294802121017</v>
+        <v>13.02948021210176</v>
       </c>
       <c r="H26">
-        <v>36.79634203637112</v>
+        <v>36.79634203637116</v>
       </c>
       <c r="I26">
         <v>1.732683781024597E-09</v>
       </c>
       <c r="J26">
-        <v>1.136630404074429E-09</v>
+        <v>1.136630404074427E-09</v>
       </c>
       <c r="K26">
-        <v>0.000458785645504364</v>
+        <v>0.0004587856455043651</v>
       </c>
       <c r="L26">
         <v>0.1317588566486688</v>
       </c>
       <c r="M26">
-        <v>950.2890374101779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.1317588566486688</v>
+      </c>
+      <c r="N26">
+        <v>950.289037410177</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>76.69208154195914</v>
+        <v>76.6920815419591</v>
       </c>
       <c r="B27">
-        <v>26954.52825348224</v>
+        <v>26954.52825348208</v>
       </c>
       <c r="C27">
-        <v>42.77128847746492</v>
+        <v>42.77128847746469</v>
       </c>
       <c r="D27">
         <v>35927.92668944009</v>
       </c>
       <c r="E27">
-        <v>6919.600609662467</v>
+        <v>6919.600609662475</v>
       </c>
       <c r="F27">
-        <v>6290.149393031659</v>
+        <v>6290.149393031663</v>
       </c>
       <c r="G27">
-        <v>12.33045671630062</v>
+        <v>12.33045671630061</v>
       </c>
       <c r="H27">
-        <v>35.27263782398748</v>
+        <v>35.27263782398753</v>
       </c>
       <c r="I27">
-        <v>1.769361954535795E-09</v>
+        <v>1.769361954535796E-09</v>
       </c>
       <c r="J27">
-        <v>1.18988051641193E-09</v>
+        <v>1.189880516411929E-09</v>
       </c>
       <c r="K27">
-        <v>0.0004331867196666017</v>
+        <v>0.0004331867196666023</v>
       </c>
       <c r="L27">
-        <v>0.1316223399031614</v>
+        <v>0.1316223399031613</v>
       </c>
       <c r="M27">
-        <v>943.4204050917309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.1316223399031613</v>
+      </c>
+      <c r="N27">
+        <v>943.420405091731</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>77.76014932780569</v>
+        <v>77.76014932780565</v>
       </c>
       <c r="B28">
-        <v>31338.0318762328</v>
+        <v>31338.0318762327</v>
       </c>
       <c r="C28">
-        <v>49.11533351603896</v>
+        <v>49.11533351603882</v>
       </c>
       <c r="D28">
-        <v>35734.49382269847</v>
+        <v>35734.49382269849</v>
       </c>
       <c r="E28">
-        <v>6879.818315562578</v>
+        <v>6879.81831556258</v>
       </c>
       <c r="F28">
-        <v>6242.64542011999</v>
+        <v>6242.645420119993</v>
       </c>
       <c r="G28">
-        <v>11.70970717130889</v>
+        <v>11.70970717130888</v>
       </c>
       <c r="H28">
         <v>33.91148414111841</v>
       </c>
       <c r="I28">
-        <v>1.807551851519717E-09</v>
+        <v>1.807551851519714E-09</v>
       </c>
       <c r="J28">
-        <v>1.246109637338948E-09</v>
+        <v>1.246109637338945E-09</v>
       </c>
       <c r="K28">
-        <v>0.0004099423559106442</v>
+        <v>0.0004099423559106457</v>
       </c>
       <c r="L28">
-        <v>0.1314532130554278</v>
+        <v>0.1314532130554279</v>
       </c>
       <c r="M28">
-        <v>936.2823714799093</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.1314532130554279</v>
+      </c>
+      <c r="N28">
+        <v>936.2823714799101</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>78.82821711365224</v>
+        <v>78.8282171136522</v>
       </c>
       <c r="B29">
-        <v>36264.7373755285</v>
+        <v>36264.73737552791</v>
       </c>
       <c r="C29">
-        <v>56.15500010712313</v>
+        <v>56.15500010712223</v>
       </c>
       <c r="D29">
-        <v>35544.10350948891</v>
+        <v>35544.10350948892</v>
       </c>
       <c r="E29">
-        <v>6841.113373598832</v>
+        <v>6841.113373598834</v>
       </c>
       <c r="F29">
-        <v>6196.336527373133</v>
+        <v>6196.336527373132</v>
       </c>
       <c r="G29">
-        <v>11.15929155695494</v>
+        <v>11.15929155695493</v>
       </c>
       <c r="H29">
         <v>32.69845614917224</v>
@@ -1683,109 +1857,127 @@
         <v>1.847345577746656E-09</v>
       </c>
       <c r="J29">
-        <v>1.305413317641248E-09</v>
+        <v>1.305413317641244E-09</v>
       </c>
       <c r="K29">
-        <v>0.0003888287285568779</v>
+        <v>0.0003888287285568788</v>
       </c>
       <c r="L29">
-        <v>0.1312495167990621</v>
+        <v>0.1312495167990622</v>
       </c>
       <c r="M29">
+        <v>0.1312495167990622</v>
+      </c>
+      <c r="N29">
         <v>928.8982296669934</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>79.8962848994988</v>
+        <v>79.89628489949877</v>
       </c>
       <c r="B30">
-        <v>41780.30782349369</v>
+        <v>41780.30782349309</v>
       </c>
       <c r="C30">
-        <v>63.93923351611533</v>
+        <v>63.93923351611443</v>
       </c>
       <c r="D30">
         <v>35356.45354480032</v>
       </c>
       <c r="E30">
-        <v>6803.316503164157</v>
+        <v>6803.316503164155</v>
       </c>
       <c r="F30">
-        <v>6151.060458083203</v>
+        <v>6151.060458083202</v>
       </c>
       <c r="G30">
-        <v>10.67180522358849</v>
+        <v>10.67180522358846</v>
       </c>
       <c r="H30">
-        <v>31.62032095607855</v>
+        <v>31.62032095607861</v>
       </c>
       <c r="I30">
-        <v>1.888840289710638E-09</v>
+        <v>1.888840289710636E-09</v>
       </c>
       <c r="J30">
-        <v>1.367879381255342E-09</v>
+        <v>1.36787938125534E-09</v>
       </c>
       <c r="K30">
-        <v>0.0003696249551338961</v>
+        <v>0.0003696249551338965</v>
       </c>
       <c r="L30">
-        <v>0.1310085877798904</v>
+        <v>0.1310085877798905</v>
       </c>
       <c r="M30">
-        <v>921.2945160300716</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.1310085877798905</v>
+      </c>
+      <c r="N30">
+        <v>921.2945160300729</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>80.96435268534536</v>
+        <v>80.96435268534532</v>
       </c>
       <c r="B31">
-        <v>47932.20932759942</v>
+        <v>47932.20932759925</v>
       </c>
       <c r="C31">
-        <v>72.51839483556843</v>
+        <v>72.51839483556822</v>
       </c>
       <c r="D31">
-        <v>35171.2597936134</v>
+        <v>35171.25979361341</v>
       </c>
       <c r="E31">
-        <v>6766.271877204998</v>
+        <v>6766.271877205004</v>
       </c>
       <c r="F31">
-        <v>6106.668480244674</v>
+        <v>6106.668480244682</v>
       </c>
       <c r="G31">
-        <v>10.24040379773283</v>
+        <v>10.2404037977328</v>
       </c>
       <c r="H31">
-        <v>30.66499426853968</v>
+        <v>30.66499426853963</v>
       </c>
       <c r="I31">
-        <v>1.932138787023682E-09</v>
+        <v>1.932138787023676E-09</v>
       </c>
       <c r="J31">
-        <v>1.433587036705907E-09</v>
+        <v>1.433587036705905E-09</v>
       </c>
       <c r="K31">
-        <v>0.0003521219114348216</v>
+        <v>0.0003521219114348221</v>
       </c>
       <c r="L31">
         <v>0.1307270040726932</v>
       </c>
       <c r="M31">
-        <v>913.4994288423463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.1307270040726932</v>
+      </c>
+      <c r="N31">
+        <v>913.4994288423478</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>82.03242047119191</v>
+        <v>82.03242047119187</v>
       </c>
       <c r="B32">
-        <v>54769.656489746</v>
+        <v>54769.6564897458</v>
       </c>
       <c r="C32">
-        <v>81.94424238536165</v>
+        <v>81.94424238536138</v>
       </c>
       <c r="D32">
         <v>34988.25462616085</v>
@@ -1794,13 +1986,13 @@
         <v>6729.835979198988</v>
       </c>
       <c r="F32">
-        <v>6063.024234722689</v>
+        <v>6063.02423472269</v>
       </c>
       <c r="G32">
-        <v>9.858808188301127</v>
+        <v>9.858808188301142</v>
       </c>
       <c r="H32">
-        <v>29.82148506782993</v>
+        <v>29.82148506782992</v>
       </c>
       <c r="I32">
         <v>1.977350145315296E-09</v>
@@ -1815,18 +2007,24 @@
         <v>0.1304005920027499</v>
       </c>
       <c r="M32">
-        <v>905.5414937276136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.1304005920027499</v>
+      </c>
+      <c r="N32">
+        <v>905.5414937276132</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>83.10048825703845</v>
+        <v>83.10048825703842</v>
       </c>
       <c r="B33">
-        <v>62343.55417003023</v>
+        <v>62343.55417003013</v>
       </c>
       <c r="C33">
-        <v>92.26991982931031</v>
+        <v>92.2699198293102</v>
       </c>
       <c r="D33">
         <v>34807.18548152512</v>
@@ -1835,16 +2033,16 @@
         <v>6693.876518568549</v>
       </c>
       <c r="F33">
-        <v>6020.002643311897</v>
+        <v>6020.002643311896</v>
       </c>
       <c r="G33">
-        <v>9.521295056665618</v>
+        <v>9.521295056665615</v>
       </c>
       <c r="H33">
-        <v>29.07983273364463</v>
+        <v>29.07983273364468</v>
       </c>
       <c r="I33">
-        <v>2.0245903952995E-09</v>
+        <v>2.024590395299502E-09</v>
       </c>
       <c r="J33">
         <v>1.574996526891083E-09</v>
@@ -1856,387 +2054,447 @@
         <v>0.1300244908155581</v>
       </c>
       <c r="M33">
-        <v>897.4484893010722</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.1300244908155581</v>
+      </c>
+      <c r="N33">
+        <v>897.4484893010725</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>84.16855604288503</v>
+        <v>84.16855604288497</v>
       </c>
       <c r="B34">
-        <v>70706.43616661402</v>
+        <v>70706.43616661296</v>
       </c>
       <c r="C34">
-        <v>103.5499516032083</v>
+        <v>103.5499516032067</v>
       </c>
       <c r="D34">
         <v>34627.81354639972</v>
       </c>
       <c r="E34">
-        <v>6658.271410274674</v>
+        <v>6658.271410274684</v>
       </c>
       <c r="F34">
-        <v>5977.488882450964</v>
+        <v>5977.488882450974</v>
       </c>
       <c r="G34">
-        <v>9.222676978618599</v>
+        <v>9.222676978618622</v>
       </c>
       <c r="H34">
-        <v>28.43104002425315</v>
+        <v>28.43104002425317</v>
       </c>
       <c r="I34">
         <v>2.073983254424853E-09</v>
       </c>
       <c r="J34">
-        <v>1.650807772738147E-09</v>
+        <v>1.650807772738143E-09</v>
       </c>
       <c r="K34">
-        <v>0.0003079888058271955</v>
+        <v>0.0003079888058271957</v>
       </c>
       <c r="L34">
         <v>0.1295932693185035</v>
       </c>
       <c r="M34">
-        <v>889.2466283638714</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.1295932693185035</v>
+      </c>
+      <c r="N34">
+        <v>889.246628363871</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>85.23662382873157</v>
+        <v>85.23662382873154</v>
       </c>
       <c r="B35">
-        <v>79912.40140038753</v>
+        <v>79912.40140038804</v>
       </c>
       <c r="C35">
-        <v>115.8402462100439</v>
+        <v>115.8402462100448</v>
       </c>
       <c r="D35">
         <v>34449.91253721939</v>
       </c>
       <c r="E35">
-        <v>6622.90782128073</v>
+        <v>6622.907821280732</v>
       </c>
       <c r="F35">
         <v>5935.377425294115</v>
       </c>
       <c r="G35">
-        <v>8.958275603099038</v>
+        <v>8.958275603098985</v>
       </c>
       <c r="H35">
-        <v>27.86700450157053</v>
+        <v>27.86700450157051</v>
       </c>
       <c r="I35">
-        <v>2.125660918346656E-09</v>
+        <v>2.125660918346657E-09</v>
       </c>
       <c r="J35">
-        <v>1.7300788438991E-09</v>
+        <v>1.730078843899097E-09</v>
       </c>
       <c r="K35">
-        <v>0.000295555420716554</v>
+        <v>0.0002955554207165544</v>
       </c>
       <c r="L35">
         <v>0.1291010868098096</v>
       </c>
       <c r="M35">
-        <v>880.9599761024044</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.1291010868098096</v>
+      </c>
+      <c r="N35">
+        <v>880.9599761024051</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>86.30469161457813</v>
+        <v>86.30469161457808</v>
       </c>
       <c r="B36">
-        <v>90017.04816589323</v>
+        <v>90017.04816589289</v>
       </c>
       <c r="C36">
-        <v>129.1981079112616</v>
+        <v>129.1981079112612</v>
       </c>
       <c r="D36">
-        <v>34273.26757508638</v>
+        <v>34273.26757508639</v>
       </c>
       <c r="E36">
-        <v>6587.681284291284</v>
+        <v>6587.681284291289</v>
       </c>
       <c r="F36">
-        <v>5893.571152551202</v>
+        <v>5893.571152551207</v>
       </c>
       <c r="G36">
-        <v>8.723890365649808</v>
+        <v>8.723890365649833</v>
       </c>
       <c r="H36">
-        <v>27.38045033299982</v>
+        <v>27.38045033299984</v>
       </c>
       <c r="I36">
-        <v>2.179764920373241E-09</v>
+        <v>2.179764920373237E-09</v>
       </c>
       <c r="J36">
-        <v>1.812838209290698E-09</v>
+        <v>1.812838209290696E-09</v>
       </c>
       <c r="K36">
-        <v>0.0002840488101174626</v>
+        <v>0.0002840488101174634</v>
       </c>
       <c r="L36">
-        <v>0.1285418896187705</v>
+        <v>0.1285418896187706</v>
       </c>
       <c r="M36">
-        <v>872.6100773964987</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.1285418896187706</v>
+      </c>
+      <c r="N36">
+        <v>872.6100773964989</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>87.37275940042467</v>
+        <v>87.37275940042463</v>
       </c>
       <c r="B37">
-        <v>101077.4069797266</v>
+        <v>101077.4069797265</v>
       </c>
       <c r="C37">
-        <v>143.6822573302083</v>
+        <v>143.6822573302082</v>
       </c>
       <c r="D37">
-        <v>34097.67414400243</v>
+        <v>34097.67414400246</v>
       </c>
       <c r="E37">
-        <v>6552.494877492461</v>
+        <v>6552.494877492457</v>
       </c>
       <c r="F37">
-        <v>5851.980530828832</v>
+        <v>5851.980530828831</v>
       </c>
       <c r="G37">
-        <v>8.515764713382879</v>
+        <v>8.515764713382906</v>
       </c>
       <c r="H37">
         <v>26.96486187930065</v>
       </c>
       <c r="I37">
-        <v>2.236447068061506E-09</v>
+        <v>2.236447068061496E-09</v>
       </c>
       <c r="J37">
-        <v>1.899104084816502E-09</v>
+        <v>1.899104084816493E-09</v>
       </c>
       <c r="K37">
-        <v>0.0002733655894205116</v>
+        <v>0.0002733655894205124</v>
       </c>
       <c r="L37">
-        <v>0.1279096346815179</v>
+        <v>0.127909634681518</v>
       </c>
       <c r="M37">
-        <v>864.2157603246305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.127909634681518</v>
+      </c>
+      <c r="N37">
+        <v>864.2157603246316</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>88.44082718627125</v>
+        <v>88.44082718627119</v>
       </c>
       <c r="B38">
-        <v>113151.8725255284</v>
+        <v>113151.8725255286</v>
       </c>
       <c r="C38">
-        <v>159.3528614866881</v>
+        <v>159.3528614866886</v>
       </c>
       <c r="D38">
-        <v>33922.93712387356</v>
+        <v>33922.93712387358</v>
       </c>
       <c r="E38">
-        <v>6517.258467818921</v>
+        <v>6517.258467818913</v>
       </c>
       <c r="F38">
-        <v>5810.522856006708</v>
+        <v>5810.522856006703</v>
       </c>
       <c r="G38">
-        <v>8.330551316934343</v>
+        <v>8.330551316934358</v>
       </c>
       <c r="H38">
-        <v>26.61442006507336</v>
+        <v>26.61442006507335</v>
       </c>
       <c r="I38">
-        <v>2.295870467294249E-09</v>
+        <v>2.295870467294242E-09</v>
       </c>
       <c r="J38">
-        <v>1.988884920519292E-09</v>
+        <v>1.988884920519285E-09</v>
       </c>
       <c r="K38">
-        <v>0.0002634157339971488</v>
+        <v>0.0002634157339971494</v>
       </c>
       <c r="L38">
-        <v>0.1271985329077109</v>
+        <v>0.127198532907711</v>
       </c>
       <c r="M38">
-        <v>855.7930815687555</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.127198532907711</v>
+      </c>
+      <c r="N38">
+        <v>855.7930815687563</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>89.50889497211779</v>
+        <v>89.50889497211774</v>
       </c>
       <c r="B39">
-        <v>126300.1351620512</v>
+        <v>126300.1351620508</v>
       </c>
       <c r="C39">
-        <v>176.2715738016464</v>
+        <v>176.271573801646</v>
       </c>
       <c r="D39">
-        <v>33748.86989060358</v>
+        <v>33748.86989060359</v>
       </c>
       <c r="E39">
-        <v>6481.888014441395</v>
+        <v>6481.888014441392</v>
       </c>
       <c r="F39">
-        <v>5769.121558359248</v>
+        <v>5769.121558359244</v>
       </c>
       <c r="G39">
-        <v>8.16527736186794</v>
+        <v>8.165277361867915</v>
       </c>
       <c r="H39">
-        <v>26.32394220544688</v>
+        <v>26.32394220544687</v>
       </c>
       <c r="I39">
-        <v>2.358210645489098E-09</v>
+        <v>2.358210645489095E-09</v>
       </c>
       <c r="J39">
-        <v>2.082180106234945E-09</v>
+        <v>2.082180106234938E-09</v>
       </c>
       <c r="K39">
-        <v>0.0002541208186006865</v>
+        <v>0.0002541208186006869</v>
       </c>
       <c r="L39">
-        <v>0.1264033074531157</v>
+        <v>0.1264033074531158</v>
       </c>
       <c r="M39">
-        <v>847.3553807601278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.1264033074531158</v>
+      </c>
+      <c r="N39">
+        <v>847.3553807601286</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>90.57696275796434</v>
+        <v>90.5769627579643</v>
       </c>
       <c r="B40">
-        <v>140583.1124284293</v>
+        <v>140583.112428429</v>
       </c>
       <c r="C40">
-        <v>194.5015846497004</v>
+        <v>194.5015846497</v>
       </c>
       <c r="D40">
         <v>33575.29347634251</v>
       </c>
       <c r="E40">
-        <v>6446.304928620913</v>
+        <v>6446.304928620914</v>
       </c>
       <c r="F40">
         <v>5727.705565594541</v>
       </c>
       <c r="G40">
-        <v>8.017310709116934</v>
+        <v>8.017310709116941</v>
       </c>
       <c r="H40">
-        <v>26.08882571230735</v>
+        <v>26.08882571230739</v>
       </c>
       <c r="I40">
-        <v>2.423656787097108E-09</v>
+        <v>2.423656787097111E-09</v>
       </c>
       <c r="J40">
-        <v>2.178980880893339E-09</v>
+        <v>2.178980880893337E-09</v>
       </c>
       <c r="K40">
-        <v>0.0002454124132554737</v>
+        <v>0.0002454124132554735</v>
       </c>
       <c r="L40">
-        <v>0.1255194646712308</v>
+        <v>0.1255194646712307</v>
       </c>
       <c r="M40">
-        <v>838.9134139540508</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.1255194646712307</v>
+      </c>
+      <c r="N40">
+        <v>838.9134139540506</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>91.64503054381089</v>
+        <v>91.64503054381085</v>
       </c>
       <c r="B41">
-        <v>156062.8809499976</v>
+        <v>156062.8809499954</v>
       </c>
       <c r="C41">
-        <v>214.1076830969047</v>
+        <v>214.1076830969017</v>
       </c>
       <c r="D41">
-        <v>33402.03578362073</v>
+        <v>33402.03578362075</v>
       </c>
       <c r="E41">
-        <v>6410.435485743045</v>
+        <v>6410.435485743044</v>
       </c>
       <c r="F41">
-        <v>5686.208719662866</v>
+        <v>5686.208719662868</v>
       </c>
       <c r="G41">
-        <v>7.88432747637156</v>
+        <v>7.884327476371664</v>
       </c>
       <c r="H41">
-        <v>25.9049959119527</v>
+        <v>25.9049959119528</v>
       </c>
       <c r="I41">
-        <v>2.492413096282416E-09</v>
+        <v>2.492413096282407E-09</v>
       </c>
       <c r="J41">
-        <v>2.279271425047882E-09</v>
+        <v>2.279271425047875E-09</v>
       </c>
       <c r="K41">
-        <v>0.0002372306669027018</v>
+        <v>0.0002372306669027024</v>
       </c>
       <c r="L41">
-        <v>0.1245435771507971</v>
+        <v>0.1245435771507972</v>
       </c>
       <c r="M41">
+        <v>0.1245435771507972</v>
+      </c>
+      <c r="N41">
         <v>830.4755405690452</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>92.71309832965746</v>
+        <v>92.71309832965741</v>
       </c>
       <c r="B42">
-        <v>172802.609119417</v>
+        <v>172802.6091194187</v>
       </c>
       <c r="C42">
-        <v>235.1563305435233</v>
+        <v>235.1563305435258</v>
       </c>
       <c r="D42">
         <v>33228.93084768681</v>
       </c>
       <c r="E42">
-        <v>6374.210285172236</v>
+        <v>6374.210285172234</v>
       </c>
       <c r="F42">
-        <v>5644.569243028871</v>
+        <v>5644.569243028872</v>
       </c>
       <c r="G42">
-        <v>7.76428140737466</v>
+        <v>7.764281407374695</v>
       </c>
       <c r="H42">
-        <v>25.76885806186267</v>
+        <v>25.76885806186268</v>
       </c>
       <c r="I42">
-        <v>2.564700303673869E-09</v>
+        <v>2.564700303673866E-09</v>
       </c>
       <c r="J42">
-        <v>2.38303011185885E-09</v>
+        <v>2.383030111858845E-09</v>
       </c>
       <c r="K42">
-        <v>0.0002295230832724506</v>
+        <v>0.0002295230832724507</v>
       </c>
       <c r="L42">
         <v>0.1234735771140125</v>
       </c>
       <c r="M42">
+        <v>0.1234735771140125</v>
+      </c>
+      <c r="N42">
         <v>822.0479426378333</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>93.78116611550401</v>
+        <v>93.78116611550395</v>
       </c>
       <c r="B43">
-        <v>190866.4909022554</v>
+        <v>190866.4909022542</v>
       </c>
       <c r="C43">
-        <v>257.7157470991618</v>
+        <v>257.7157470991603</v>
       </c>
       <c r="D43">
         <v>33055.81814188663</v>
@@ -2245,429 +2503,489 @@
         <v>6337.563753509116</v>
       </c>
       <c r="F43">
-        <v>5602.72925006151</v>
+        <v>5602.729250061508</v>
       </c>
       <c r="G43">
-        <v>7.655375253646455</v>
+        <v>7.655375253646412</v>
       </c>
       <c r="H43">
-        <v>25.67725354787287</v>
+        <v>25.67725354787283</v>
       </c>
       <c r="I43">
-        <v>2.640757336393222E-09</v>
+        <v>2.640757336393223E-09</v>
       </c>
       <c r="J43">
-        <v>2.490230888776279E-09</v>
+        <v>2.490230888776277E-09</v>
       </c>
       <c r="K43">
-        <v>0.0002222434780810697</v>
+        <v>0.0002222434780810699</v>
       </c>
       <c r="L43">
         <v>0.1223090529166001</v>
       </c>
       <c r="M43">
-        <v>813.6348596387171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.1223090529166001</v>
+      </c>
+      <c r="N43">
+        <v>813.6348596387176</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>94.84923390135056</v>
+        <v>94.8492339013505</v>
       </c>
       <c r="B44">
-        <v>210319.6810944675</v>
+        <v>210319.6810944671</v>
       </c>
       <c r="C44">
-        <v>281.8560116535696</v>
+        <v>281.8560116535692</v>
       </c>
       <c r="D44">
         <v>32882.54192138059</v>
       </c>
       <c r="E44">
-        <v>6300.433686857196</v>
+        <v>6300.433686857188</v>
       </c>
       <c r="F44">
-        <v>5560.634299238312</v>
+        <v>5560.634299238304</v>
       </c>
       <c r="G44">
-        <v>7.556034284820631</v>
+        <v>7.556034284820599</v>
       </c>
       <c r="H44">
-        <v>25.62742016672347</v>
+        <v>25.62742016672346</v>
       </c>
       <c r="I44">
-        <v>2.720843173247919E-09</v>
+        <v>2.720843173247912E-09</v>
       </c>
       <c r="J44">
-        <v>2.600844760628791E-09</v>
+        <v>2.600844760628783E-09</v>
       </c>
       <c r="K44">
-        <v>0.0002153510989056799</v>
+        <v>0.0002153510989056805</v>
       </c>
       <c r="L44">
-        <v>0.1210515308060211</v>
+        <v>0.1210515308060212</v>
       </c>
       <c r="M44">
-        <v>805.2388262164143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.1210515308060212</v>
+      </c>
+      <c r="N44">
+        <v>805.2388262164158</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>95.91730168719711</v>
+        <v>95.91730168719707</v>
       </c>
       <c r="B45">
-        <v>231228.2323418118</v>
+        <v>231228.2323418135</v>
       </c>
       <c r="C45">
-        <v>307.6491767737242</v>
+        <v>307.6491767737268</v>
       </c>
       <c r="D45">
         <v>32708.95060090104</v>
       </c>
       <c r="E45">
-        <v>6262.760827784491</v>
+        <v>6262.76082778449</v>
       </c>
       <c r="F45">
-        <v>5518.232981959759</v>
+        <v>5518.232981959757</v>
       </c>
       <c r="G45">
-        <v>7.464881962653912</v>
+        <v>7.464881962653936</v>
       </c>
       <c r="H45">
         <v>25.6169563464329</v>
       </c>
       <c r="I45">
-        <v>2.805238910098025E-09</v>
+        <v>2.805238910098022E-09</v>
       </c>
       <c r="J45">
-        <v>2.714841344690635E-09</v>
+        <v>2.714841344690628E-09</v>
       </c>
       <c r="K45">
-        <v>0.0002088098861831545</v>
+        <v>0.0002088098861831548</v>
       </c>
       <c r="L45">
         <v>0.1197047098327716</v>
       </c>
       <c r="M45">
-        <v>796.8609036052047</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.1197047098327716</v>
+      </c>
+      <c r="N45">
+        <v>796.8609036052046</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>96.98536947304368</v>
+        <v>96.98536947304362</v>
       </c>
       <c r="B46">
-        <v>253659.0342188213</v>
+        <v>253659.0342188209</v>
       </c>
       <c r="C46">
-        <v>335.16939976051</v>
+        <v>335.1693997605097</v>
       </c>
       <c r="D46">
-        <v>32534.89616261013</v>
+        <v>32534.89616261014</v>
       </c>
       <c r="E46">
-        <v>6224.488472777397</v>
+        <v>6224.488472777402</v>
       </c>
       <c r="F46">
-        <v>5475.476543902336</v>
+        <v>5475.476543902344</v>
       </c>
       <c r="G46">
-        <v>7.380717754220127</v>
+        <v>7.380717754220123</v>
       </c>
       <c r="H46">
-        <v>25.64378912311547</v>
+        <v>25.64378912311545</v>
       </c>
       <c r="I46">
-        <v>2.894250064045994E-09</v>
+        <v>2.894250064045987E-09</v>
       </c>
       <c r="J46">
-        <v>2.832190469445886E-09</v>
+        <v>2.832190469445881E-09</v>
       </c>
       <c r="K46">
-        <v>0.0002025878537753703</v>
+        <v>0.0002025878537753708</v>
       </c>
       <c r="L46">
         <v>0.1182746039644313</v>
       </c>
       <c r="M46">
-        <v>788.5008984782951</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.1182746039644313</v>
+      </c>
+      <c r="N46">
+        <v>788.5008984782957</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>98.05343725889023</v>
+        <v>98.05343725889017</v>
       </c>
       <c r="B47">
-        <v>277679.754657976</v>
+        <v>277679.7546579724</v>
       </c>
       <c r="C47">
-        <v>364.4930914407892</v>
+        <v>364.4930914407843</v>
       </c>
       <c r="D47">
-        <v>32360.23359043443</v>
+        <v>32360.23359043444</v>
       </c>
       <c r="E47">
-        <v>6185.562106114502</v>
+        <v>6185.562106114516</v>
       </c>
       <c r="F47">
-        <v>5432.318534990798</v>
+        <v>5432.318534990808</v>
       </c>
       <c r="G47">
-        <v>7.302497017279654</v>
+        <v>7.302497017279679</v>
       </c>
       <c r="H47">
-        <v>25.70614567366112</v>
+        <v>25.70614567366117</v>
       </c>
       <c r="I47">
-        <v>2.988209149351305E-09</v>
+        <v>2.988209149351308E-09</v>
       </c>
       <c r="J47">
-        <v>2.95286379100599E-09</v>
+        <v>2.952863791005987E-09</v>
       </c>
       <c r="K47">
-        <v>0.00019665656912941</v>
+        <v>0.0001966565691294103</v>
       </c>
       <c r="L47">
-        <v>0.1167695384608155</v>
+        <v>0.1167695384608156</v>
       </c>
       <c r="M47">
-        <v>780.1575652757715</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.1167695384608156</v>
+      </c>
+      <c r="N47">
+        <v>780.157565275771</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>99.12150504473678</v>
+        <v>99.12150504473671</v>
       </c>
       <c r="B48">
-        <v>303358.784019077</v>
+        <v>303358.7840190747</v>
       </c>
       <c r="C48">
-        <v>395.6990845586719</v>
+        <v>395.699084558669</v>
       </c>
       <c r="D48">
-        <v>32184.82032753082</v>
+        <v>32184.82032753083</v>
       </c>
       <c r="E48">
-        <v>6145.929056224035</v>
+        <v>6145.929056224025</v>
       </c>
       <c r="F48">
-        <v>5388.714484227748</v>
+        <v>5388.714484227741</v>
       </c>
       <c r="G48">
-        <v>7.229312861611899</v>
+        <v>7.229312861611843</v>
       </c>
       <c r="H48">
-        <v>25.8025281958556</v>
+        <v>25.80252819585551</v>
       </c>
       <c r="I48">
-        <v>3.087478562956374E-09</v>
+        <v>3.087478562956363E-09</v>
       </c>
       <c r="J48">
-        <v>3.076836404230282E-09</v>
+        <v>3.076836404230277E-09</v>
       </c>
       <c r="K48">
-        <v>0.0001909907153980221</v>
+        <v>0.0001909907153980224</v>
       </c>
       <c r="L48">
         <v>0.1151999542149926</v>
       </c>
       <c r="M48">
-        <v>771.8287898605017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.1151999542149926</v>
+      </c>
+      <c r="N48">
+        <v>771.8287898605032</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>100.1895728305833</v>
       </c>
       <c r="B49">
-        <v>330765.1820941309</v>
+        <v>330765.1820941297</v>
       </c>
       <c r="C49">
-        <v>428.8688239681483</v>
+        <v>428.8688239681468</v>
       </c>
       <c r="D49">
-        <v>32008.51575378387</v>
+        <v>32008.51575378389</v>
       </c>
       <c r="E49">
-        <v>6105.538170721647</v>
+        <v>6105.538170721646</v>
       </c>
       <c r="F49">
-        <v>5344.621595773243</v>
+        <v>5344.621595773242</v>
       </c>
       <c r="G49">
-        <v>7.160379871190904</v>
+        <v>7.160379871190894</v>
       </c>
       <c r="H49">
-        <v>25.93169192843995</v>
+        <v>25.93169192843994</v>
       </c>
       <c r="I49">
-        <v>3.192453823365924E-09</v>
+        <v>3.192453823365917E-09</v>
       </c>
       <c r="J49">
-        <v>3.204088429294393E-09</v>
+        <v>3.204088429294385E-09</v>
       </c>
       <c r="K49">
-        <v>0.0001855677204535418</v>
+        <v>0.0001855677204535422</v>
       </c>
       <c r="L49">
-        <v>0.1135779977865289</v>
+        <v>0.113577997786529</v>
       </c>
       <c r="M49">
-        <v>763.5117536888251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.113577997786529</v>
+      </c>
+      <c r="N49">
+        <v>763.5117536888258</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>101.2576406164299</v>
+        <v>101.2576406164298</v>
       </c>
       <c r="B50">
-        <v>359968.6283557237</v>
+        <v>359968.6283557209</v>
       </c>
       <c r="C50">
-        <v>464.0865812261949</v>
+        <v>464.0865812261914</v>
       </c>
       <c r="D50">
-        <v>31831.18068044981</v>
+        <v>31831.18068044983</v>
       </c>
       <c r="E50">
-        <v>6064.33950644916</v>
+        <v>6064.339506449161</v>
       </c>
       <c r="F50">
-        <v>5299.99846281139</v>
+        <v>5299.998462811394</v>
       </c>
       <c r="G50">
-        <v>7.095019561118365</v>
+        <v>7.095019561118396</v>
       </c>
       <c r="H50">
-        <v>26.09262611133094</v>
+        <v>26.09262611133093</v>
       </c>
       <c r="I50">
-        <v>3.303567213522316E-09</v>
+        <v>3.303567213522302E-09</v>
       </c>
       <c r="J50">
-        <v>3.334606558497056E-09</v>
+        <v>3.334606558497045E-09</v>
       </c>
       <c r="K50">
-        <v>0.0001803674402281546</v>
+        <v>0.0001803674402281552</v>
       </c>
       <c r="L50">
-        <v>0.1119169136282698</v>
+        <v>0.11191691362827</v>
       </c>
       <c r="M50">
-        <v>755.2030786380911</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.11191691362827</v>
+      </c>
+      <c r="N50">
+        <v>755.2030786380918</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>102.3257084022764</v>
       </c>
       <c r="B51">
-        <v>391039.3757766191</v>
+        <v>391039.3757766134</v>
       </c>
       <c r="C51">
-        <v>501.4396966479366</v>
+        <v>501.4396966479291</v>
       </c>
       <c r="D51">
-        <v>31652.67685925128</v>
+        <v>31652.67685925129</v>
       </c>
       <c r="E51">
-        <v>6022.284030944323</v>
+        <v>6022.28403094433</v>
       </c>
       <c r="F51">
-        <v>5254.804795870155</v>
+        <v>5254.804795870163</v>
       </c>
       <c r="G51">
-        <v>7.032647438236284</v>
+        <v>7.032647438236292</v>
       </c>
       <c r="H51">
-        <v>26.28453769918391</v>
+        <v>26.28453769918389</v>
       </c>
       <c r="I51">
-        <v>3.421291886472392E-09</v>
+        <v>3.421291886472383E-09</v>
       </c>
       <c r="J51">
-        <v>3.468385552260309E-09</v>
+        <v>3.4683855522603E-09</v>
       </c>
       <c r="K51">
-        <v>0.0001753718860882899</v>
+        <v>0.0001753718860882901</v>
       </c>
       <c r="L51">
         <v>0.1102302986040594</v>
       </c>
       <c r="M51">
-        <v>746.8989532824188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.1102302986040594</v>
+      </c>
+      <c r="N51">
+        <v>746.8989532824194</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>103.393776188123</v>
+        <v>103.3937761881229</v>
       </c>
       <c r="B52">
-        <v>424048.2085758311</v>
+        <v>424048.2085758304</v>
       </c>
       <c r="C52">
-        <v>541.018852422883</v>
+        <v>541.0188524228824</v>
       </c>
       <c r="D52">
-        <v>31472.86650339143</v>
+        <v>31472.86650339145</v>
       </c>
       <c r="E52">
-        <v>5979.32333186464</v>
+        <v>5979.323331864637</v>
       </c>
       <c r="F52">
-        <v>5209.001162371333</v>
+        <v>5209.001162371331</v>
       </c>
       <c r="G52">
-        <v>6.972761533806228</v>
+        <v>6.972761533806218</v>
       </c>
       <c r="H52">
-        <v>26.50683765857302</v>
+        <v>26.50683765857296</v>
       </c>
       <c r="I52">
-        <v>3.546146502287432E-09</v>
+        <v>3.546146502287419E-09</v>
       </c>
       <c r="J52">
-        <v>3.605429677364363E-09</v>
+        <v>3.605429677364358E-09</v>
       </c>
       <c r="K52">
-        <v>0.0001705649879340842</v>
+        <v>0.0001705649879340846</v>
       </c>
       <c r="L52">
-        <v>0.108531313059174</v>
+        <v>0.1085313130591741</v>
       </c>
       <c r="M52">
-        <v>738.5952418192859</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.1085313130591741</v>
+      </c>
+      <c r="N52">
+        <v>738.5952418192869</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>104.4618439739696</v>
+        <v>104.4618439739695</v>
       </c>
       <c r="B53">
-        <v>459066.4042817499</v>
+        <v>459066.4042817492</v>
       </c>
       <c r="C53">
-        <v>582.918381013593</v>
+        <v>582.9183810135926</v>
       </c>
       <c r="D53">
         <v>31291.61181809742</v>
       </c>
       <c r="E53">
-        <v>5935.40933096291</v>
+        <v>5935.409330962912</v>
       </c>
       <c r="F53">
-        <v>5162.548734277695</v>
+        <v>5162.548734277692</v>
       </c>
       <c r="G53">
-        <v>6.914932279369521</v>
+        <v>6.914932279369498</v>
       </c>
       <c r="H53">
-        <v>26.75912969953675</v>
+        <v>26.75912969953674</v>
       </c>
       <c r="I53">
-        <v>3.678700476194241E-09</v>
+        <v>3.678700476194249E-09</v>
       </c>
       <c r="J53">
-        <v>3.745754084311919E-09</v>
+        <v>3.745754084311914E-09</v>
       </c>
       <c r="K53">
         <v>0.0001659323863926923</v>
@@ -2676,39 +2994,45 @@
         <v>0.1068319550057206</v>
       </c>
       <c r="M53">
-        <v>730.2875770811559</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.1068319550057206</v>
+      </c>
+      <c r="N53">
+        <v>730.2875770811553</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>105.5299117598161</v>
+        <v>105.529911759816</v>
       </c>
       <c r="B54">
-        <v>496165.7005465704</v>
+        <v>496165.7005465688</v>
       </c>
       <c r="C54">
-        <v>627.2366137775424</v>
+        <v>627.2366137775406</v>
       </c>
       <c r="D54">
         <v>31108.77453842403</v>
       </c>
       <c r="E54">
-        <v>5890.493999265062</v>
+        <v>5890.493999265063</v>
       </c>
       <c r="F54">
-        <v>5115.409040770567</v>
+        <v>5115.409040770566</v>
       </c>
       <c r="G54">
-        <v>6.85879360190456</v>
+        <v>6.858793601904614</v>
       </c>
       <c r="H54">
-        <v>27.04120131558984</v>
+        <v>27.04120131558986</v>
       </c>
       <c r="I54">
-        <v>3.819579931597239E-09</v>
+        <v>3.819579931597242E-09</v>
       </c>
       <c r="J54">
-        <v>3.8893861242266E-09</v>
+        <v>3.889386124226596E-09</v>
       </c>
       <c r="K54">
         <v>0.0001614612488629301</v>
@@ -2717,80 +3041,92 @@
         <v>0.1051424898153691</v>
       </c>
       <c r="M54">
-        <v>721.9714391669384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.1051424898153691</v>
+      </c>
+      <c r="N54">
+        <v>721.9714391669372</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>106.5979795456627</v>
+        <v>106.5979795456626</v>
       </c>
       <c r="B55">
-        <v>535418.2671986981</v>
+        <v>535418.267198697</v>
       </c>
       <c r="C55">
-        <v>674.07627558331</v>
+        <v>674.0762755833091</v>
       </c>
       <c r="D55">
-        <v>30924.21547214734</v>
+        <v>30924.21547214736</v>
       </c>
       <c r="E55">
-        <v>5844.52907013501</v>
+        <v>5844.529070135018</v>
       </c>
       <c r="F55">
-        <v>5067.543722934519</v>
+        <v>5067.54372293453</v>
       </c>
       <c r="G55">
-        <v>6.804035120966916</v>
+        <v>6.804035120966931</v>
       </c>
       <c r="H55">
-        <v>27.35301703239862</v>
+        <v>27.3530170323986</v>
       </c>
       <c r="I55">
-        <v>3.969474468112302E-09</v>
+        <v>3.969474468112291E-09</v>
       </c>
       <c r="J55">
-        <v>4.036366608792089E-09</v>
+        <v>4.036366608792072E-09</v>
       </c>
       <c r="K55">
-        <v>0.000157140105298922</v>
+        <v>0.0001571401052989222</v>
       </c>
       <c r="L55">
-        <v>0.1034710925662524</v>
+        <v>0.1034710925662526</v>
       </c>
       <c r="M55">
-        <v>713.6422212357352</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.1034710925662526</v>
+      </c>
+      <c r="N55">
+        <v>713.6422212357357</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>107.6660473315092</v>
       </c>
       <c r="B56">
-        <v>576896.6840801189</v>
+        <v>576896.6840801171</v>
       </c>
       <c r="C56">
-        <v>723.5449321477302</v>
+        <v>723.5449321477281</v>
       </c>
       <c r="D56">
         <v>30737.79404565585</v>
       </c>
       <c r="E56">
-        <v>5797.46574692241</v>
+        <v>5797.465746922414</v>
       </c>
       <c r="F56">
-        <v>5018.914287442999</v>
+        <v>5018.914287443</v>
       </c>
       <c r="G56">
-        <v>6.750395338045829</v>
+        <v>6.750395338045812</v>
       </c>
       <c r="H56">
-        <v>27.69471379421364</v>
+        <v>27.69471379421362</v>
       </c>
       <c r="I56">
-        <v>4.129144874508385E-09</v>
+        <v>4.129144874508384E-09</v>
       </c>
       <c r="J56">
-        <v>4.186751019405028E-09</v>
+        <v>4.186751019405023E-09</v>
       </c>
       <c r="K56">
         <v>0.0001529587005280713</v>
@@ -2799,1852 +3135,2128 @@
         <v>0.1018237163118107</v>
       </c>
       <c r="M56">
-        <v>705.2952839501356</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.1018237163118107</v>
+      </c>
+      <c r="N56">
+        <v>705.2952839501359</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>108.7341151173558</v>
+        <v>108.7341151173557</v>
       </c>
       <c r="B57">
-        <v>620673.9252854246</v>
+        <v>620673.9252854127</v>
       </c>
       <c r="C57">
-        <v>775.7554979214717</v>
+        <v>775.7554979214555</v>
       </c>
       <c r="D57">
         <v>30549.36785080011</v>
       </c>
       <c r="E57">
-        <v>5749.254401880287</v>
+        <v>5749.254401880288</v>
       </c>
       <c r="F57">
-        <v>4969.481856230704</v>
+        <v>4969.4818562307</v>
       </c>
       <c r="G57">
-        <v>6.697655716449389</v>
+        <v>6.697655716449415</v>
       </c>
       <c r="H57">
-        <v>28.0665984492253</v>
+        <v>28.06659844922536</v>
       </c>
       <c r="I57">
-        <v>4.299431940340991E-09</v>
+        <v>4.299431940340994E-09</v>
       </c>
       <c r="J57">
-        <v>4.340610673956873E-09</v>
+        <v>4.340610673956863E-09</v>
       </c>
       <c r="K57">
-        <v>0.0001489078606196329</v>
+        <v>0.000148907860619633</v>
       </c>
       <c r="L57">
-        <v>0.1002041604935912</v>
+        <v>0.1002041604935913</v>
       </c>
       <c r="M57">
-        <v>696.9259999610258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.1002041604935913</v>
+      </c>
+      <c r="N57">
+        <v>696.9259999610254</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>109.8021829032023</v>
       </c>
       <c r="B58">
-        <v>666823.3504970961</v>
+        <v>666823.3504970883</v>
       </c>
       <c r="C58">
-        <v>830.8268136160931</v>
+        <v>830.8268136160826</v>
       </c>
       <c r="D58">
         <v>30358.7921906894</v>
       </c>
       <c r="E58">
-        <v>5699.844263006636</v>
+        <v>5699.844263006639</v>
       </c>
       <c r="F58">
         <v>4919.206909101717</v>
       </c>
       <c r="G58">
-        <v>6.645635558343034</v>
+        <v>6.645635558343017</v>
       </c>
       <c r="H58">
-        <v>28.46914733090937</v>
+        <v>28.46914733090932</v>
       </c>
       <c r="I58">
-        <v>4.481266549043028E-09</v>
+        <v>4.481266549043026E-09</v>
       </c>
       <c r="J58">
-        <v>4.498033861510035E-09</v>
+        <v>4.498033861510028E-09</v>
       </c>
       <c r="K58">
         <v>0.0001449793713875142</v>
       </c>
       <c r="L58">
-        <v>0.09861428859231658</v>
+        <v>0.09861428859231659</v>
       </c>
       <c r="M58">
+        <v>0.09861428859231659</v>
+      </c>
+      <c r="N58">
         <v>688.5297897066757</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>110.8702506890489</v>
+        <v>110.8702506890488</v>
       </c>
       <c r="B59">
-        <v>715418.7041978638</v>
+        <v>715418.704197861</v>
       </c>
       <c r="C59">
-        <v>888.8843039207399</v>
+        <v>888.8843039207368</v>
       </c>
       <c r="D59">
-        <v>30165.91962241793</v>
+        <v>30165.91962241795</v>
       </c>
       <c r="E59">
-        <v>5649.183085409638</v>
+        <v>5649.183085409637</v>
       </c>
       <c r="F59">
         <v>4868.049016157383</v>
       </c>
       <c r="G59">
-        <v>6.594187593833491</v>
+        <v>6.594187593833473</v>
       </c>
       <c r="H59">
-        <v>28.90300797313673</v>
+        <v>28.90300797313667</v>
       </c>
       <c r="I59">
-        <v>4.675681270568085E-09</v>
+        <v>4.675681270568064E-09</v>
       </c>
       <c r="J59">
-        <v>4.659126956651131E-09</v>
+        <v>4.659126956651117E-09</v>
       </c>
       <c r="K59">
-        <v>0.0001411658675535563</v>
+        <v>0.0001411658675535566</v>
       </c>
       <c r="L59">
-        <v>0.09705433540213436</v>
+        <v>0.09705433540213451</v>
       </c>
       <c r="M59">
-        <v>680.1021496680019</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.09705433540213451</v>
+      </c>
+      <c r="N59">
+        <v>680.102149668003</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>111.9383184748954</v>
       </c>
       <c r="B60">
-        <v>766534.1236352565</v>
+        <v>766534.1236352547</v>
       </c>
       <c r="C60">
-        <v>950.0607276299937</v>
+        <v>950.060727629992</v>
       </c>
       <c r="D60">
         <v>29970.5994946578</v>
       </c>
       <c r="E60">
-        <v>5597.216803715957</v>
+        <v>5597.216803715969</v>
       </c>
       <c r="F60">
-        <v>4815.966556830151</v>
+        <v>4815.96655683016</v>
       </c>
       <c r="G60">
-        <v>6.543194205062245</v>
+        <v>6.543194205062261</v>
       </c>
       <c r="H60">
-        <v>29.36900304369818</v>
+        <v>29.3690030436982</v>
       </c>
       <c r="I60">
-        <v>4.883823714957349E-09</v>
+        <v>4.883823714957341E-09</v>
       </c>
       <c r="J60">
-        <v>4.824015526556576E-09</v>
+        <v>4.824015526556569E-09</v>
       </c>
       <c r="K60">
         <v>0.0001374607314399926</v>
       </c>
       <c r="L60">
-        <v>0.09552324907515425</v>
+        <v>0.09552324907515432</v>
       </c>
       <c r="M60">
-        <v>671.6386740873224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.09552324907515432</v>
+      </c>
+      <c r="N60">
+        <v>671.6386740873227</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>113.006386260742</v>
+        <v>113.0063862607419</v>
       </c>
       <c r="B61">
-        <v>820244.1565153152</v>
+        <v>820244.1565153135</v>
       </c>
       <c r="C61">
-        <v>1014.497034328981</v>
+        <v>1014.497034328979</v>
       </c>
       <c r="D61">
-        <v>29772.67747795899</v>
+        <v>29772.67747795901</v>
       </c>
       <c r="E61">
-        <v>5543.889161936029</v>
+        <v>5543.889161936039</v>
       </c>
       <c r="F61">
-        <v>4762.916422177949</v>
+        <v>4762.916422177959</v>
       </c>
       <c r="G61">
-        <v>6.4925642160048</v>
+        <v>6.492564216004829</v>
       </c>
       <c r="H61">
-        <v>29.8681366357685</v>
+        <v>29.86813663576851</v>
       </c>
       <c r="I61">
-        <v>5.106971961487984E-09</v>
+        <v>5.106971961487974E-09</v>
       </c>
       <c r="J61">
-        <v>4.992845444875137E-09</v>
+        <v>4.992845444875125E-09</v>
       </c>
       <c r="K61">
-        <v>0.0001338580003223505</v>
+        <v>0.0001338580003223507</v>
       </c>
       <c r="L61">
-        <v>0.0940190257623354</v>
+        <v>0.09401902576233553</v>
       </c>
       <c r="M61">
-        <v>663.1350710252449</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.09401902576233553</v>
+      </c>
+      <c r="N61">
+        <v>663.135071025245</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>114.0744540465885</v>
       </c>
       <c r="B62">
-        <v>876623.7895097461</v>
+        <v>876623.7895097431</v>
       </c>
       <c r="C62">
-        <v>1082.343343993957</v>
+        <v>1082.343343993954</v>
       </c>
       <c r="D62">
-        <v>29571.99508543337</v>
+        <v>29571.99508543338</v>
       </c>
       <c r="E62">
-        <v>5489.141317066302</v>
+        <v>5489.141317066307</v>
       </c>
       <c r="F62">
-        <v>4708.853696922662</v>
+        <v>4708.853696922668</v>
       </c>
       <c r="G62">
-        <v>6.442230186018687</v>
+        <v>6.442230186018717</v>
       </c>
       <c r="H62">
-        <v>30.40160312216152</v>
+        <v>30.40160312216154</v>
       </c>
       <c r="I62">
-        <v>5.346552444027451E-09</v>
+        <v>5.346552444027445E-09</v>
       </c>
       <c r="J62">
-        <v>5.165784027504142E-09</v>
+        <v>5.165784027504131E-09</v>
       </c>
       <c r="K62">
-        <v>0.0001303522817733225</v>
+        <v>0.0001303522817733227</v>
       </c>
       <c r="L62">
-        <v>0.09253900979839343</v>
+        <v>0.0925390097983935</v>
       </c>
       <c r="M62">
-        <v>654.5871735025502</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.0925390097983935</v>
+      </c>
+      <c r="N62">
+        <v>654.5871735025499</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>115.1425218324351</v>
+        <v>115.142521832435</v>
       </c>
       <c r="B63">
-        <v>935748.4887739975</v>
+        <v>935748.4887739978</v>
       </c>
       <c r="C63">
-        <v>1153.760068411984</v>
+        <v>1153.760068411986</v>
       </c>
       <c r="D63">
-        <v>29368.38918124855</v>
+        <v>29368.38918124856</v>
       </c>
       <c r="E63">
-        <v>5432.91141254497</v>
+        <v>5432.911412544979</v>
       </c>
       <c r="F63">
-        <v>4653.73131750294</v>
+        <v>4653.731317502949</v>
       </c>
       <c r="G63">
-        <v>6.392146152034345</v>
+        <v>6.392146152034361</v>
       </c>
       <c r="H63">
-        <v>30.97079885612008</v>
+        <v>30.97079885612003</v>
       </c>
       <c r="I63">
-        <v>5.604160755343235E-09</v>
+        <v>5.604160755343217E-09</v>
       </c>
       <c r="J63">
-        <v>5.343021206303301E-09</v>
+        <v>5.343021206303293E-09</v>
       </c>
       <c r="K63">
-        <v>0.0001269386764774167</v>
+        <v>0.0001269386764774169</v>
       </c>
       <c r="L63">
-        <v>0.09108014608296285</v>
+        <v>0.09108014608296294</v>
       </c>
       <c r="M63">
-        <v>645.990946353646</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.09108014608296294</v>
+      </c>
+      <c r="N63">
+        <v>645.9909463536463</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>116.2105896182817</v>
+        <v>116.2105896182816</v>
       </c>
       <c r="B64">
-        <v>997694.2537882634</v>
+        <v>997694.253788264</v>
       </c>
       <c r="C64">
-        <v>1228.919196246274</v>
+        <v>1228.919196246277</v>
       </c>
       <c r="D64">
-        <v>29161.69147399194</v>
+        <v>29161.69147399196</v>
       </c>
       <c r="E64">
-        <v>5375.134117484156</v>
+        <v>5375.134117484161</v>
       </c>
       <c r="F64">
-        <v>4597.499702150525</v>
+        <v>4597.499702150535</v>
       </c>
       <c r="G64">
-        <v>6.342285770671583</v>
+        <v>6.342285770671579</v>
       </c>
       <c r="H64">
-        <v>31.57733709904167</v>
+        <v>31.57733709904158</v>
       </c>
       <c r="I64">
-        <v>5.881585935959869E-09</v>
+        <v>5.881585935959837E-09</v>
       </c>
       <c r="J64">
-        <v>5.524770757851624E-09</v>
+        <v>5.52477075785161E-09</v>
       </c>
       <c r="K64">
-        <v>0.0001236127081062321</v>
+        <v>0.0001236127081062324</v>
       </c>
       <c r="L64">
-        <v>0.08963918168375515</v>
+        <v>0.08963918168375533</v>
       </c>
       <c r="M64">
-        <v>637.3424893056201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.08963918168375533</v>
+      </c>
+      <c r="N64">
+        <v>637.3424893056211</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>117.2786574041282</v>
+        <v>117.2786574041281</v>
       </c>
       <c r="B65">
-        <v>1062537.685947868</v>
+        <v>1062537.685947867</v>
       </c>
       <c r="C65">
         <v>1308.005766928055</v>
       </c>
       <c r="D65">
-        <v>28951.72799144685</v>
+        <v>28951.72799144687</v>
       </c>
       <c r="E65">
         <v>5315.740127379066</v>
       </c>
       <c r="F65">
-        <v>4540.106348686448</v>
+        <v>4540.10634868645</v>
       </c>
       <c r="G65">
-        <v>6.292640817442777</v>
+        <v>6.292640817442786</v>
       </c>
       <c r="H65">
-        <v>32.22306667533731</v>
+        <v>32.22306667533719</v>
       </c>
       <c r="I65">
-        <v>6.180838942728278E-09</v>
+        <v>6.18083894272824E-09</v>
       </c>
       <c r="J65">
-        <v>5.711271605615535E-09</v>
+        <v>5.711271605615516E-09</v>
       </c>
       <c r="K65">
-        <v>0.0001203702599234824</v>
+        <v>0.0001203702599234827</v>
       </c>
       <c r="L65">
-        <v>0.08821282035304034</v>
+        <v>0.08821282035304048</v>
       </c>
       <c r="M65">
-        <v>628.6380366928951</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.08821282035304048</v>
+      </c>
+      <c r="N65">
+        <v>628.6380366928959</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>118.3467251899748</v>
+        <v>118.3467251899747</v>
       </c>
       <c r="B66">
-        <v>1130356.073437886</v>
+        <v>1130356.073437876</v>
       </c>
       <c r="C66">
-        <v>1391.219562391019</v>
+        <v>1391.219562391006</v>
       </c>
       <c r="D66">
-        <v>28738.31853260361</v>
+        <v>28738.31853260362</v>
       </c>
       <c r="E66">
-        <v>5254.655621750212</v>
+        <v>5254.65562175022</v>
       </c>
       <c r="F66">
-        <v>4481.495395367018</v>
+        <v>4481.495395367024</v>
       </c>
       <c r="G66">
-        <v>6.243220005587474</v>
+        <v>6.243220005587483</v>
       </c>
       <c r="H66">
-        <v>32.91009500462987</v>
+        <v>32.91009500462982</v>
       </c>
       <c r="I66">
-        <v>6.504186156559121E-09</v>
+        <v>6.504186156559117E-09</v>
       </c>
       <c r="J66">
-        <v>5.902789215483255E-09</v>
+        <v>5.902789215483242E-09</v>
       </c>
       <c r="K66">
-        <v>0.0001172075178441726</v>
+        <v>0.0001172075178441727</v>
       </c>
       <c r="L66">
-        <v>0.08679783712610503</v>
+        <v>0.08679783712610505</v>
       </c>
       <c r="M66">
-        <v>619.8739541217111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.08679783712610505</v>
+      </c>
+      <c r="N66">
+        <v>619.8739541217108</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>119.4147929758213</v>
+        <v>119.4147929758212</v>
       </c>
       <c r="B67">
         <v>1201227.494021595</v>
       </c>
       <c r="C67">
-        <v>1478.777050025141</v>
+        <v>1478.777050025143</v>
       </c>
       <c r="D67">
-        <v>28521.27609174562</v>
+        <v>28521.27609174564</v>
       </c>
       <c r="E67">
-        <v>5191.801673921997</v>
+        <v>5191.801673921995</v>
       </c>
       <c r="F67">
         <v>4421.607139691077</v>
       </c>
       <c r="G67">
-        <v>6.194048091968057</v>
+        <v>6.194048091968053</v>
       </c>
       <c r="H67">
-        <v>33.64081635099587</v>
+        <v>33.64081635099573</v>
       </c>
       <c r="I67">
-        <v>6.854188998435544E-09</v>
+        <v>6.854188998435506E-09</v>
       </c>
       <c r="J67">
-        <v>6.099617106673709E-09</v>
+        <v>6.099617106673693E-09</v>
       </c>
       <c r="K67">
-        <v>0.0001141209197089736</v>
+        <v>0.0001141209197089739</v>
       </c>
       <c r="L67">
-        <v>0.08539116132205901</v>
+        <v>0.08539116132205915</v>
       </c>
       <c r="M67">
-        <v>611.0467323112715</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.08539116132205915</v>
+      </c>
+      <c r="N67">
+        <v>611.0467323112722</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>120.4828607616679</v>
+        <v>120.4828607616678</v>
       </c>
       <c r="B68">
-        <v>1275230.937444523</v>
+        <v>1275230.937444543</v>
       </c>
       <c r="C68">
-        <v>1570.913615144291</v>
+        <v>1570.913615144327</v>
       </c>
       <c r="D68">
-        <v>28300.40624811931</v>
+        <v>28300.40624811933</v>
       </c>
       <c r="E68">
-        <v>5127.093607905851</v>
+        <v>5127.093607905847</v>
       </c>
       <c r="F68">
-        <v>4360.377509617924</v>
+        <v>4360.377509617922</v>
       </c>
       <c r="G68">
-        <v>6.145165241908754</v>
+        <v>6.145165241908757</v>
       </c>
       <c r="H68">
-        <v>34.41794637021283</v>
+        <v>34.4179463702128</v>
       </c>
       <c r="I68">
-        <v>7.233750992214407E-09</v>
+        <v>7.233750992214372E-09</v>
       </c>
       <c r="J68">
-        <v>6.302078502724778E-09</v>
+        <v>6.302078502724766E-09</v>
       </c>
       <c r="K68">
-        <v>0.0001111071105569315</v>
+        <v>0.0001111071105569318</v>
       </c>
       <c r="L68">
-        <v>0.08398993594751321</v>
+        <v>0.08398993594751332</v>
       </c>
       <c r="M68">
-        <v>602.1529782584938</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.08398993594751332</v>
+      </c>
+      <c r="N68">
+        <v>602.152978258495</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>121.5509285475144</v>
+        <v>121.5509285475143</v>
       </c>
       <c r="B69">
-        <v>1352446.449186105</v>
+        <v>1352446.449186101</v>
       </c>
       <c r="C69">
-        <v>1667.886126725226</v>
+        <v>1667.886126725222</v>
       </c>
       <c r="D69">
-        <v>28075.50651291051</v>
+        <v>28075.50651291054</v>
       </c>
       <c r="E69">
-        <v>5060.440297187559</v>
+        <v>5060.440297187568</v>
       </c>
       <c r="F69">
-        <v>4297.737481163093</v>
+        <v>4297.737481163103</v>
       </c>
       <c r="G69">
-        <v>6.096626628831626</v>
+        <v>6.09662662883165</v>
       </c>
       <c r="H69">
-        <v>35.2445643451688</v>
+        <v>35.24456434516878</v>
       </c>
       <c r="I69">
-        <v>7.646173961292502E-09</v>
+        <v>7.646173961292459E-09</v>
       </c>
       <c r="J69">
-        <v>6.51052815082594E-09</v>
+        <v>6.510528150825914E-09</v>
       </c>
       <c r="K69">
-        <v>0.0001081629036903517</v>
+        <v>0.0001081629036903519</v>
       </c>
       <c r="L69">
-        <v>0.08259156039371468</v>
+        <v>0.08259156039371485</v>
       </c>
       <c r="M69">
-        <v>593.1894038017991</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.08259156039371485</v>
+      </c>
+      <c r="N69">
+        <v>593.1894038018002</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>122.618996333361</v>
+        <v>122.6189963333609</v>
       </c>
       <c r="B70">
-        <v>1432955.297259845</v>
+        <v>1432955.297259841</v>
       </c>
       <c r="C70">
-        <v>1769.975886119333</v>
+        <v>1769.975886119328</v>
       </c>
       <c r="D70">
-        <v>27846.36562286875</v>
+        <v>27846.36562286876</v>
       </c>
       <c r="E70">
-        <v>4991.743400191759</v>
+        <v>4991.743400191761</v>
       </c>
       <c r="F70">
         <v>4233.612435878325</v>
       </c>
       <c r="G70">
-        <v>6.048502248140323</v>
+        <v>6.048502248140318</v>
       </c>
       <c r="H70">
-        <v>36.12416489843871</v>
+        <v>36.12416489843874</v>
       </c>
       <c r="I70">
-        <v>8.095225500497398E-09</v>
+        <v>8.09522550049739E-09</v>
       </c>
       <c r="J70">
-        <v>6.725354342469245E-09</v>
+        <v>6.725354342469227E-09</v>
       </c>
       <c r="K70">
-        <v>0.000105285247327226</v>
+        <v>0.0001052852473272262</v>
       </c>
       <c r="L70">
-        <v>0.08119372188872738</v>
+        <v>0.08119372188872745</v>
       </c>
       <c r="M70">
-        <v>584.1528115955572</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.08119372188872745</v>
+      </c>
+      <c r="N70">
+        <v>584.1528115955576</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>123.6870641192075</v>
+        <v>123.6870641192074</v>
       </c>
       <c r="B71">
-        <v>1516840.163632842</v>
+        <v>1516840.163632828</v>
       </c>
       <c r="C71">
-        <v>1877.492014675945</v>
+        <v>1877.492014675926</v>
       </c>
       <c r="D71">
-        <v>27612.76276676201</v>
+        <v>27612.76276676203</v>
       </c>
       <c r="E71">
-        <v>4920.896527439201</v>
+        <v>4920.896527439213</v>
       </c>
       <c r="F71">
-        <v>4167.92145135961</v>
+        <v>4167.92145135962</v>
       </c>
       <c r="G71">
-        <v>6.000876928025928</v>
+        <v>6.000876928025959</v>
       </c>
       <c r="H71">
-        <v>37.06072148867462</v>
+        <v>37.0607214886745</v>
       </c>
       <c r="I71">
-        <v>8.585220461094641E-09</v>
+        <v>8.58522046109459E-09</v>
       </c>
       <c r="J71">
-        <v>6.946981174624147E-09</v>
+        <v>6.94698117462412E-09</v>
       </c>
       <c r="K71">
-        <v>0.0001024711966303071</v>
+        <v>0.0001024711966303073</v>
       </c>
       <c r="L71">
-        <v>0.0797944197053555</v>
+        <v>0.07979441970535564</v>
       </c>
       <c r="M71">
-        <v>575.0400784512696</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.07979441970535564</v>
+      </c>
+      <c r="N71">
+        <v>575.04007845127</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>124.7551319050541</v>
+        <v>124.755131905054</v>
       </c>
       <c r="B72">
-        <v>1604185.361556623</v>
+        <v>1604185.361556606</v>
       </c>
       <c r="C72">
-        <v>1990.775342377472</v>
+        <v>1990.775342377447</v>
       </c>
       <c r="D72">
         <v>27374.46672667274</v>
       </c>
       <c r="E72">
-        <v>4847.784336117827</v>
+        <v>4847.784336117843</v>
       </c>
       <c r="F72">
-        <v>4100.576517791371</v>
+        <v>4100.576517791382</v>
       </c>
       <c r="G72">
-        <v>5.953850522774612</v>
+        <v>5.953850522774582</v>
       </c>
       <c r="H72">
-        <v>38.05876467346516</v>
+        <v>38.05876467346521</v>
       </c>
       <c r="I72">
-        <v>9.121119976264323E-09</v>
+        <v>9.121119976264325E-09</v>
       </c>
       <c r="J72">
-        <v>7.175871098889838E-09</v>
+        <v>7.175871098889816E-09</v>
       </c>
       <c r="K72">
-        <v>9.971789088842321E-05</v>
+        <v>9.971789088842333E-05</v>
       </c>
       <c r="L72">
-        <v>0.07839198478497628</v>
+        <v>0.0783919847849763</v>
       </c>
       <c r="M72">
-        <v>565.8481359548744</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.0783919847849763</v>
+      </c>
+      <c r="N72">
+        <v>565.8481359548749</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>125.8231996909007</v>
+        <v>125.8231996909006</v>
       </c>
       <c r="B73">
-        <v>1695077.079601532</v>
+        <v>1695077.079601519</v>
       </c>
       <c r="C73">
-        <v>2110.202865002526</v>
+        <v>2110.202865002507</v>
       </c>
       <c r="D73">
-        <v>27131.23491065039</v>
+        <v>27131.23491065043</v>
       </c>
       <c r="E73">
-        <v>4772.281549252864</v>
+        <v>4772.281549252867</v>
       </c>
       <c r="F73">
-        <v>4031.481673830942</v>
+        <v>4031.481673830947</v>
       </c>
       <c r="G73">
-        <v>5.907538276839886</v>
+        <v>5.907538276839895</v>
       </c>
       <c r="H73">
-        <v>39.12347901002794</v>
+        <v>39.12347901002766</v>
       </c>
       <c r="I73">
-        <v>9.708652607768187E-09</v>
+        <v>9.708652607768068E-09</v>
       </c>
       <c r="J73">
-        <v>7.412527817004012E-09</v>
+        <v>7.41252781700398E-09</v>
       </c>
       <c r="K73">
-        <v>9.702253560459534E-05</v>
+        <v>9.702253560459568E-05</v>
       </c>
       <c r="L73">
-        <v>0.07698509628246968</v>
+        <v>0.07698509628246986</v>
       </c>
       <c r="M73">
-        <v>556.5739482315081</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.07698509628246986</v>
+      </c>
+      <c r="N73">
+        <v>556.5739482315098</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>126.8912674767472</v>
+        <v>126.8912674767471</v>
       </c>
       <c r="B74">
-        <v>1789603.652357659</v>
+        <v>1789603.65235765</v>
       </c>
       <c r="C74">
-        <v>2236.192840847858</v>
+        <v>2236.192840847847</v>
       </c>
       <c r="D74">
-        <v>26882.81224601098</v>
+        <v>26882.81224601101</v>
       </c>
       <c r="E74">
-        <v>4694.251899325172</v>
+        <v>4694.25189932519</v>
       </c>
       <c r="F74">
-        <v>3960.532056187735</v>
+        <v>3960.532056187754</v>
       </c>
       <c r="G74">
-        <v>5.862071350477034</v>
+        <v>5.862071350477023</v>
       </c>
       <c r="H74">
-        <v>40.26082364184329</v>
+        <v>40.26082364184307</v>
       </c>
       <c r="I74">
-        <v>1.035446361214952E-08</v>
+        <v>1.035446361214941E-08</v>
       </c>
       <c r="J74">
-        <v>7.657499595576748E-09</v>
+        <v>7.657499595576717E-09</v>
       </c>
       <c r="K74">
-        <v>9.438238921577011E-05</v>
+        <v>9.438238921577046E-05</v>
       </c>
       <c r="L74">
-        <v>0.07557279558398844</v>
+        <v>0.07557279558398863</v>
       </c>
       <c r="M74">
-        <v>547.2144866999027</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.07557279558398863</v>
+      </c>
+      <c r="N74">
+        <v>547.2144866999046</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>127.9593352625938</v>
+        <v>127.9593352625937</v>
       </c>
       <c r="B75">
-        <v>1887855.856454259</v>
+        <v>1887855.856454247</v>
       </c>
       <c r="C75">
-        <v>2369.210597759536</v>
+        <v>2369.210597759518</v>
       </c>
       <c r="D75">
-        <v>26628.929893071</v>
+        <v>26628.92989307103</v>
       </c>
       <c r="E75">
-        <v>4613.547000696671</v>
+        <v>4613.547000696679</v>
       </c>
       <c r="F75">
-        <v>3887.612859547894</v>
+        <v>3887.612859547899</v>
       </c>
       <c r="G75">
-        <v>5.817597500284559</v>
+        <v>5.817597500284552</v>
       </c>
       <c r="H75">
-        <v>41.47768319010721</v>
+        <v>41.47768319010722</v>
       </c>
       <c r="I75">
-        <v>1.106630025009473E-08</v>
+        <v>1.106630025009469E-08</v>
       </c>
       <c r="J75">
-        <v>7.911383092178556E-09</v>
+        <v>7.911383092178533E-09</v>
       </c>
       <c r="K75">
-        <v>9.179475412836881E-05</v>
+        <v>9.179475412836908E-05</v>
       </c>
       <c r="L75">
-        <v>0.07415449759003005</v>
+        <v>0.07415449759003021</v>
       </c>
       <c r="M75">
-        <v>537.7667016363623</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.07415449759003021</v>
+      </c>
+      <c r="N75">
+        <v>537.766701636363</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>129.0274030484403</v>
+        <v>129.0274030484402</v>
       </c>
       <c r="B76">
-        <v>1989927.228539593</v>
+        <v>1989927.22853961</v>
       </c>
       <c r="C76">
-        <v>2509.775114127456</v>
+        <v>2509.775114127494</v>
       </c>
       <c r="D76">
-        <v>26369.30372658795</v>
+        <v>26369.30372658799</v>
       </c>
       <c r="E76">
-        <v>4530.005162474898</v>
+        <v>4530.005162474878</v>
       </c>
       <c r="F76">
-        <v>3812.598207767263</v>
+        <v>3812.59820776725</v>
       </c>
       <c r="G76">
-        <v>5.774281910747008</v>
+        <v>5.774281910746977</v>
       </c>
       <c r="H76">
-        <v>42.78205768472087</v>
+        <v>42.78205768472055</v>
       </c>
       <c r="I76">
-        <v>1.185324370282288E-08</v>
+        <v>1.185324370282273E-08</v>
       </c>
       <c r="J76">
-        <v>8.174827810590129E-09</v>
+        <v>8.174827810590094E-09</v>
       </c>
       <c r="K76">
-        <v>8.925697169916932E-05</v>
+        <v>8.925697169916971E-05</v>
       </c>
       <c r="L76">
-        <v>0.07272999847625213</v>
+        <v>0.07272999847625237</v>
       </c>
       <c r="M76">
-        <v>528.2274903494845</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.07272999847625237</v>
+      </c>
+      <c r="N76">
+        <v>528.2274903494866</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>130.0954708342869</v>
+        <v>130.0954708342868</v>
       </c>
       <c r="B77">
-        <v>2095914.398844041</v>
+        <v>2095914.398843989</v>
       </c>
       <c r="C77">
-        <v>2658.46641888753</v>
+        <v>2658.466418887432</v>
       </c>
       <c r="D77">
-        <v>26103.63251562256</v>
+        <v>26103.63251562257</v>
       </c>
       <c r="E77">
-        <v>4443.450164767721</v>
+        <v>4443.450164767756</v>
       </c>
       <c r="F77">
-        <v>3735.349944564642</v>
+        <v>3735.349944564667</v>
       </c>
       <c r="G77">
-        <v>5.73230817614848</v>
+        <v>5.732308176148506</v>
       </c>
       <c r="H77">
-        <v>44.18330314930144</v>
+        <v>44.18330314930153</v>
       </c>
       <c r="I77">
-        <v>1.272600181805618E-08</v>
+        <v>1.27260018180562E-08</v>
       </c>
       <c r="J77">
-        <v>8.448541337408819E-09</v>
+        <v>8.448541337408806E-09</v>
       </c>
       <c r="K77">
-        <v>8.6766420717805E-05</v>
+        <v>8.676642071780507E-05</v>
       </c>
       <c r="L77">
-        <v>0.07129947872926427</v>
+        <v>0.07129947872926432</v>
       </c>
       <c r="M77">
-        <v>518.5936617424435</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.07129947872926432</v>
+      </c>
+      <c r="N77">
+        <v>518.5936617424431</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>131.1635386201334</v>
+        <v>131.1635386201333</v>
       </c>
       <c r="B78">
-        <v>2205917.429494965</v>
+        <v>2205917.429494936</v>
       </c>
       <c r="C78">
-        <v>2815.933818366231</v>
+        <v>2815.933818366179</v>
       </c>
       <c r="D78">
-        <v>25831.59571050141</v>
+        <v>25831.59571050147</v>
       </c>
       <c r="E78">
-        <v>4353.69003835274</v>
+        <v>4353.690038352761</v>
       </c>
       <c r="F78">
-        <v>3655.716363781602</v>
+        <v>3655.71636378162</v>
       </c>
       <c r="G78">
-        <v>5.691879436442882</v>
+        <v>5.691879436442886</v>
       </c>
       <c r="H78">
-        <v>45.69243842031649</v>
+        <v>45.69243842031609</v>
       </c>
       <c r="I78">
-        <v>1.369728203566995E-08</v>
+        <v>1.36972820356697E-08</v>
       </c>
       <c r="J78">
-        <v>8.733295558515328E-09</v>
+        <v>8.733295558515275E-09</v>
       </c>
       <c r="K78">
-        <v>8.432051884950079E-05</v>
+        <v>8.432051884950131E-05</v>
       </c>
       <c r="L78">
-        <v>0.06986349999308676</v>
+        <v>0.06986349999308707</v>
       </c>
       <c r="M78">
-        <v>508.8618969944906</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.06986349999308707</v>
+      </c>
+      <c r="N78">
+        <v>508.8618969944931</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>132.23160640598</v>
+        <v>132.2316064059798</v>
       </c>
       <c r="B79">
-        <v>2320040.140282433</v>
+        <v>2320040.140282418</v>
       </c>
       <c r="C79">
-        <v>2982.90489163318</v>
+        <v>2982.904891633155</v>
       </c>
       <c r="D79">
-        <v>25552.85071594407</v>
+        <v>25552.85071594411</v>
       </c>
       <c r="E79">
-        <v>4260.515912768606</v>
+        <v>4260.515912768611</v>
       </c>
       <c r="F79">
-        <v>3573.530917631112</v>
+        <v>3573.530917631119</v>
       </c>
       <c r="G79">
-        <v>5.653219676510894</v>
+        <v>5.653219676510913</v>
       </c>
       <c r="H79">
-        <v>47.3225393142102</v>
+        <v>47.32253931420979</v>
       </c>
       <c r="I79">
-        <v>1.478227111828148E-08</v>
+        <v>1.478227111828126E-08</v>
       </c>
       <c r="J79">
-        <v>9.029934116737326E-09</v>
+        <v>9.029934116737286E-09</v>
       </c>
       <c r="K79">
-        <v>8.191672636673327E-05</v>
+        <v>8.191672636673365E-05</v>
       </c>
       <c r="L79">
-        <v>0.06842299414524633</v>
+        <v>0.06842299414524657</v>
       </c>
       <c r="M79">
-        <v>499.0287059983532</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.06842299414524657</v>
+      </c>
+      <c r="N79">
+        <v>499.0287059983547</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>133.2996741918265</v>
+        <v>133.2996741918264</v>
       </c>
       <c r="B80">
-        <v>2438390.395318634</v>
+        <v>2438390.395318608</v>
       </c>
       <c r="C80">
-        <v>3160.195086381964</v>
+        <v>3160.195086381914</v>
       </c>
       <c r="D80">
-        <v>25267.02948914128</v>
+        <v>25267.0294891413</v>
       </c>
       <c r="E80">
-        <v>4163.701033173279</v>
+        <v>4163.701033173307</v>
       </c>
       <c r="F80">
-        <v>3488.610968733711</v>
+        <v>3488.610968733733</v>
       </c>
       <c r="G80">
-        <v>5.616575206729166</v>
+        <v>5.616575206729147</v>
       </c>
       <c r="H80">
-        <v>49.08924909356134</v>
+        <v>49.08924909356121</v>
       </c>
       <c r="I80">
-        <v>1.599925877451827E-08</v>
+        <v>1.599925877451819E-08</v>
       </c>
       <c r="J80">
-        <v>9.339381458102636E-09</v>
+        <v>9.339381458102608E-09</v>
       </c>
       <c r="K80">
-        <v>7.955255132598539E-05</v>
+        <v>7.955255132598556E-05</v>
       </c>
       <c r="L80">
-        <v>0.06697924303995496</v>
+        <v>0.06697924303995503</v>
       </c>
       <c r="M80">
-        <v>489.0903789970311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.06697924303995503</v>
+      </c>
+      <c r="N80">
+        <v>489.090378997032</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>134.3677419776731</v>
+        <v>134.367741977673</v>
       </c>
       <c r="B81">
-        <v>2561080.311034087</v>
+        <v>2561080.311034095</v>
       </c>
       <c r="C81">
-        <v>3348.717575236527</v>
+        <v>3348.71757523655</v>
       </c>
       <c r="D81">
-        <v>24973.73424596477</v>
+        <v>24973.73424596481</v>
       </c>
       <c r="E81">
-        <v>4063.000094177894</v>
+        <v>4063.000094177892</v>
       </c>
       <c r="F81">
-        <v>3400.756690862827</v>
+        <v>3400.756690862829</v>
       </c>
       <c r="G81">
         <v>5.582216355443332</v>
       </c>
       <c r="H81">
-        <v>51.01144546657159</v>
+        <v>51.01144546657115</v>
       </c>
       <c r="I81">
-        <v>1.73704575341247E-08</v>
+        <v>1.737045753412445E-08</v>
       </c>
       <c r="J81">
-        <v>9.662653933307689E-09</v>
+        <v>9.662653933307649E-09</v>
       </c>
       <c r="K81">
-        <v>7.722555511666748E-05</v>
+        <v>7.722555511666781E-05</v>
       </c>
       <c r="L81">
-        <v>0.06553384749439331</v>
+        <v>0.06553384749439349</v>
       </c>
       <c r="M81">
-        <v>479.0429324925734</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.06553384749439349</v>
+      </c>
+      <c r="N81">
+        <v>479.0429324925748</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>135.4358097635196</v>
+        <v>135.4358097635195</v>
       </c>
       <c r="B82">
-        <v>2688226.328094796</v>
+        <v>2688226.328094762</v>
       </c>
       <c r="C82">
-        <v>3549.492775579497</v>
+        <v>3549.492775579423</v>
       </c>
       <c r="D82">
-        <v>24672.53198040908</v>
+        <v>24672.5319804091</v>
       </c>
       <c r="E82">
-        <v>3958.149099777789</v>
+        <v>3958.149099777811</v>
       </c>
       <c r="F82">
-        <v>3309.750276307518</v>
+        <v>3309.750276307534</v>
       </c>
       <c r="G82">
-        <v>5.550439423218146</v>
+        <v>5.550439423218166</v>
       </c>
       <c r="H82">
-        <v>53.11212089501728</v>
+        <v>53.11212089501718</v>
       </c>
       <c r="I82">
-        <v>1.892309389358364E-08</v>
+        <v>1.892309389358357E-08</v>
       </c>
       <c r="J82">
-        <v>1.000087358851256E-08</v>
+        <v>1.000087358851255E-08</v>
       </c>
       <c r="K82">
-        <v>7.493335700410044E-05</v>
+        <v>7.493335700410055E-05</v>
       </c>
       <c r="L82">
-        <v>0.06408868432696681</v>
+        <v>0.06408868432696686</v>
       </c>
       <c r="M82">
-        <v>468.8820478225189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.06408868432696686</v>
+      </c>
+      <c r="N82">
+        <v>468.882047822519</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>136.5038775493662</v>
+        <v>136.5038775493661</v>
       </c>
       <c r="B83">
-        <v>2819949.066022111</v>
+        <v>2819949.066022082</v>
       </c>
       <c r="C83">
-        <v>3763.656574656223</v>
+        <v>3763.656574656164</v>
       </c>
       <c r="D83">
-        <v>24362.94739071513</v>
+        <v>24362.94739071516</v>
       </c>
       <c r="E83">
-        <v>3848.866028345586</v>
+        <v>3848.866028345612</v>
       </c>
       <c r="F83">
-        <v>3215.355674056586</v>
+        <v>3215.355674056609</v>
       </c>
       <c r="G83">
-        <v>5.521568978411626</v>
+        <v>5.521568978411628</v>
       </c>
       <c r="H83">
-        <v>55.4195577170205</v>
+        <v>55.41955771702029</v>
       </c>
       <c r="I83">
-        <v>2.0690879988976E-08</v>
+        <v>2.069087998897581E-08</v>
       </c>
       <c r="J83">
-        <v>1.035528551856896E-08</v>
+        <v>1.035528551856893E-08</v>
       </c>
       <c r="K83">
-        <v>7.267363587934346E-05</v>
+        <v>7.267363587934367E-05</v>
       </c>
       <c r="L83">
-        <v>0.06264585054164107</v>
+        <v>0.06264585054164121</v>
       </c>
       <c r="M83">
-        <v>458.6029996175502</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.06264585054164121</v>
+      </c>
+      <c r="N83">
+        <v>458.6029996175512</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>137.5719453352128</v>
+        <v>137.5719453352127</v>
       </c>
       <c r="B84">
-        <v>2956372.848943953</v>
+        <v>2956372.848943955</v>
       </c>
       <c r="C84">
-        <v>3992.465832755224</v>
+        <v>3992.465832755237</v>
       </c>
       <c r="D84">
-        <v>24044.45364305133</v>
+        <v>24044.45364305139</v>
       </c>
       <c r="E84">
-        <v>3734.852645882015</v>
+        <v>3734.852645882025</v>
       </c>
       <c r="F84">
-        <v>3117.319155093538</v>
+        <v>3117.319155093549</v>
       </c>
       <c r="G84">
-        <v>5.495960619615593</v>
+        <v>5.495960619615604</v>
       </c>
       <c r="H84">
-        <v>57.96891736798275</v>
+        <v>57.96891736798224</v>
       </c>
       <c r="I84">
-        <v>2.271602783684361E-08</v>
+        <v>2.27160278368432E-08</v>
       </c>
       <c r="J84">
-        <v>1.072728000275816E-08</v>
+        <v>1.072728000275809E-08</v>
       </c>
       <c r="K84">
-        <v>7.044412687500619E-05</v>
+        <v>7.044412687500663E-05</v>
       </c>
       <c r="L84">
-        <v>0.06120759402741872</v>
+        <v>0.06120759402741898</v>
       </c>
       <c r="M84">
-        <v>448.2005693649525</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.06120759402741898</v>
+      </c>
+      <c r="N84">
+        <v>448.2005693649544</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>138.6400131210593</v>
+        <v>138.6400131210592</v>
       </c>
       <c r="B85">
-        <v>3097624.754758729</v>
+        <v>3097624.754758726</v>
       </c>
       <c r="C85">
-        <v>4237.299205646881</v>
+        <v>4237.299205646891</v>
       </c>
       <c r="D85">
-        <v>23716.46016283632</v>
+        <v>23716.46016283635</v>
       </c>
       <c r="E85">
         <v>3615.797834248303</v>
       </c>
       <c r="F85">
-        <v>3015.371056434267</v>
+        <v>3015.37105643427</v>
       </c>
       <c r="G85">
-        <v>5.474004402256721</v>
+        <v>5.474004402256737</v>
       </c>
       <c r="H85">
-        <v>60.80442204000518</v>
+        <v>60.80442204000487</v>
       </c>
       <c r="I85">
-        <v>2.505205139363205E-08</v>
+        <v>2.505205139363181E-08</v>
       </c>
       <c r="J85">
-        <v>1.111842115608418E-08</v>
+        <v>1.111842115608414E-08</v>
       </c>
       <c r="K85">
-        <v>6.824260974809487E-05</v>
+        <v>6.824260974809507E-05</v>
       </c>
       <c r="L85">
-        <v>0.05977623031913108</v>
+        <v>0.05977623031913121</v>
       </c>
       <c r="M85">
-        <v>437.6689360629728</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.05977623031913121</v>
+      </c>
+      <c r="N85">
+        <v>437.6689360629736</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>139.7080809069058</v>
+        <v>139.7080809069057</v>
       </c>
       <c r="B86">
-        <v>3243833.001842014</v>
+        <v>3243833.001842094</v>
       </c>
       <c r="C86">
-        <v>4499.650884896047</v>
+        <v>4499.6508848963</v>
       </c>
       <c r="D86">
-        <v>23378.29628175151</v>
+        <v>23378.29628175161</v>
       </c>
       <c r="E86">
-        <v>3491.382712647724</v>
+        <v>3491.382712647661</v>
       </c>
       <c r="F86">
-        <v>2909.229043245086</v>
+        <v>2909.229043245049</v>
       </c>
       <c r="G86">
-        <v>5.456129238895772</v>
+        <v>5.456129238895751</v>
       </c>
       <c r="H86">
-        <v>63.98240178881608</v>
+        <v>63.9824017888147</v>
       </c>
       <c r="I86">
-        <v>2.776773613654954E-08</v>
+        <v>2.776773613654846E-08</v>
       </c>
       <c r="J86">
-        <v>1.153048460162562E-08</v>
+        <v>1.153048460162551E-08</v>
       </c>
       <c r="K86">
-        <v>6.606688487995489E-05</v>
+        <v>6.606688487995555E-05</v>
       </c>
       <c r="L86">
-        <v>0.0583540449291387</v>
+        <v>0.05835404492913911</v>
       </c>
       <c r="M86">
-        <v>427.0015308363273</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.05835404492913911</v>
+      </c>
+      <c r="N86">
+        <v>427.0015308363314</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>140.7761486927524</v>
+        <v>140.7761486927523</v>
       </c>
       <c r="B87">
-        <v>3395124.456652436</v>
+        <v>3395124.456652386</v>
       </c>
       <c r="C87">
-        <v>4781.114853743395</v>
+        <v>4781.114853743265</v>
       </c>
       <c r="D87">
-        <v>23029.18901707853</v>
+        <v>23029.18901707856</v>
       </c>
       <c r="E87">
-        <v>3361.287503225859</v>
+        <v>3361.28750322589</v>
       </c>
       <c r="F87">
-        <v>2798.603050678531</v>
+        <v>2798.603050678552</v>
       </c>
       <c r="G87">
         <v>5.442808758545802</v>
       </c>
       <c r="H87">
-        <v>67.57563604444513</v>
+        <v>67.57563604444501</v>
       </c>
       <c r="I87">
-        <v>3.095287914771004E-08</v>
+        <v>3.095287914770988E-08</v>
       </c>
       <c r="J87">
-        <v>1.196550785399141E-08</v>
+        <v>1.196550785399137E-08</v>
       </c>
       <c r="K87">
-        <v>6.391473126840417E-05</v>
+        <v>6.391473126840434E-05</v>
       </c>
       <c r="L87">
-        <v>0.05694318036013318</v>
+        <v>0.05694318036013328</v>
       </c>
       <c r="M87">
-        <v>416.190834549994</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.05694318036013328</v>
+      </c>
+      <c r="N87">
+        <v>416.1908345499946</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>141.844216478599</v>
+        <v>141.8442164785989</v>
       </c>
       <c r="B88">
-        <v>3551621.040233282</v>
+        <v>3551621.040233296</v>
       </c>
       <c r="C88">
-        <v>5083.358367816654</v>
+        <v>5083.358367816712</v>
       </c>
       <c r="D88">
-        <v>22668.23240962346</v>
+        <v>22668.23240962352</v>
       </c>
       <c r="E88">
-        <v>3225.199328894906</v>
+        <v>3225.199328894902</v>
       </c>
       <c r="F88">
-        <v>2683.201561534496</v>
+        <v>2683.201561534498</v>
       </c>
       <c r="G88">
-        <v>5.434569385534976</v>
+        <v>5.434569385534968</v>
       </c>
       <c r="H88">
-        <v>71.67968316671588</v>
+        <v>71.67968316671468</v>
       </c>
       <c r="I88">
-        <v>3.472678493330939E-08</v>
+        <v>3.472678493330845E-08</v>
       </c>
       <c r="J88">
-        <v>1.242585895412906E-08</v>
+        <v>1.242585895412898E-08</v>
       </c>
       <c r="K88">
-        <v>6.178383878731277E-05</v>
+        <v>6.178383878731315E-05</v>
       </c>
       <c r="L88">
-        <v>0.0555455059508184</v>
+        <v>0.05554550595081865</v>
       </c>
       <c r="M88">
-        <v>405.228085796172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.05554550595081865</v>
+      </c>
+      <c r="N88">
+        <v>405.2280857961744</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>142.9122842644455</v>
+        <v>142.9122842644454</v>
       </c>
       <c r="B89">
-        <v>3713434.861453159</v>
+        <v>3713434.861453199</v>
       </c>
       <c r="C89">
-        <v>5408.08666122159</v>
+        <v>5408.086661221765</v>
       </c>
       <c r="D89">
-        <v>22294.344518384</v>
+        <v>22294.34451838408</v>
       </c>
       <c r="E89">
-        <v>3082.818682920913</v>
+        <v>3082.818682920873</v>
       </c>
       <c r="F89">
-        <v>2562.737816393339</v>
+        <v>2562.737816393315</v>
       </c>
       <c r="G89">
-        <v>5.432001828530438</v>
+        <v>5.432001828530416</v>
       </c>
       <c r="H89">
-        <v>76.42235603101643</v>
+        <v>76.42235603101497</v>
       </c>
       <c r="I89">
-        <v>3.925117923753698E-08</v>
+        <v>3.925117923753573E-08</v>
       </c>
       <c r="J89">
-        <v>1.291433184086319E-08</v>
+        <v>1.29143318408631E-08</v>
       </c>
       <c r="K89">
-        <v>5.967170395196168E-05</v>
+        <v>5.967170395196212E-05</v>
       </c>
       <c r="L89">
-        <v>0.05416246691844308</v>
+        <v>0.05416246691844337</v>
       </c>
       <c r="M89">
-        <v>394.1028497666765</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.05416246691844337</v>
+      </c>
+      <c r="N89">
+        <v>394.1028497666794</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>143.9803520502921</v>
+        <v>143.9803520502919</v>
       </c>
       <c r="B90">
-        <v>3880662.046573012</v>
+        <v>3880662.046572941</v>
       </c>
       <c r="C90">
-        <v>5757.007681690406</v>
+        <v>5757.007681690164</v>
       </c>
       <c r="D90">
-        <v>21906.20605046686</v>
+        <v>21906.20605046684</v>
       </c>
       <c r="E90">
-        <v>2933.859956978658</v>
+        <v>2933.859956978721</v>
       </c>
       <c r="F90">
-        <v>2436.932704322351</v>
+        <v>2436.932704322396</v>
       </c>
       <c r="G90">
-        <v>5.435777846129743</v>
+        <v>5.435777846129769</v>
       </c>
       <c r="H90">
-        <v>81.97834735374951</v>
+        <v>81.97834735375001</v>
       </c>
       <c r="I90">
-        <v>4.475044926475112E-08</v>
+        <v>4.475044926475156E-08</v>
       </c>
       <c r="J90">
-        <v>1.343428174634989E-08</v>
+        <v>1.34342817463499E-08</v>
       </c>
       <c r="K90">
-        <v>5.757547386825268E-05</v>
+        <v>5.757547386825259E-05</v>
       </c>
       <c r="L90">
-        <v>0.05279490588777287</v>
+        <v>0.05279490588777284</v>
       </c>
       <c r="M90">
-        <v>382.8023742573083</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.05279490588777284</v>
+      </c>
+      <c r="N90">
+        <v>382.8023742573072</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>145.0484198361386</v>
+        <v>145.0484198361385</v>
       </c>
       <c r="B91">
-        <v>4053375.502273367</v>
+        <v>4053375.502273482</v>
       </c>
       <c r="C91">
-        <v>6131.817046298944</v>
+        <v>6131.817046299467</v>
       </c>
       <c r="D91">
-        <v>21502.17111856727</v>
+        <v>21502.1711185675</v>
       </c>
       <c r="E91">
-        <v>2778.038141936108</v>
+        <v>2778.038141936011</v>
       </c>
       <c r="F91">
-        <v>2305.508335559915</v>
+        <v>2305.508335559857</v>
       </c>
       <c r="G91">
-        <v>5.446675231966235</v>
+        <v>5.446675231966171</v>
       </c>
       <c r="H91">
-        <v>88.59261642122975</v>
+        <v>88.59261642122382</v>
       </c>
       <c r="I91">
-        <v>5.154451555516708E-08</v>
+        <v>5.15445155551616E-08</v>
       </c>
       <c r="J91">
-        <v>1.398982196849945E-08</v>
+        <v>1.398982196849917E-08</v>
       </c>
       <c r="K91">
-        <v>5.549171583378607E-05</v>
+        <v>5.549171583378727E-05</v>
       </c>
       <c r="L91">
-        <v>0.05144284500447906</v>
+        <v>0.05144284500447979</v>
       </c>
       <c r="M91">
-        <v>371.3106236015615</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.05144284500447979</v>
+      </c>
+      <c r="N91">
+        <v>371.3106236015699</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>146.1164876219852</v>
+        <v>146.1164876219851</v>
       </c>
       <c r="B92">
-        <v>4231617.237098499</v>
+        <v>4231617.237098443</v>
       </c>
       <c r="C92">
-        <v>6534.239253141176</v>
+        <v>6534.239253140976</v>
       </c>
       <c r="D92">
-        <v>21080.13459635812</v>
+        <v>21080.13459635814</v>
       </c>
       <c r="E92">
-        <v>2615.029979301488</v>
+        <v>2615.029979301547</v>
       </c>
       <c r="F92">
-        <v>2168.16283526287</v>
+        <v>2168.162835262913</v>
       </c>
       <c r="G92">
-        <v>5.465615742087109</v>
+        <v>5.465615742087091</v>
       </c>
       <c r="H92">
-        <v>96.6193646109634</v>
+        <v>96.61936461096369</v>
       </c>
       <c r="I92">
-        <v>6.010449359147417E-08</v>
+        <v>6.010449359147418E-08</v>
       </c>
       <c r="J92">
-        <v>1.458611750496708E-08</v>
+        <v>1.458611750496703E-08</v>
       </c>
       <c r="K92">
-        <v>5.341607764319349E-05</v>
+        <v>5.341607764319358E-05</v>
       </c>
       <c r="L92">
-        <v>0.05010520763914997</v>
+        <v>0.05010520763915003</v>
       </c>
       <c r="M92">
-        <v>359.6068251921615</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.05010520763915003</v>
+      </c>
+      <c r="N92">
+        <v>359.6068251921619</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>147.1845554078317</v>
+        <v>147.1845554078316</v>
       </c>
       <c r="B93">
-        <v>4415391.294481072</v>
+        <v>4415391.294481104</v>
       </c>
       <c r="C93">
-        <v>6966.179784953088</v>
+        <v>6966.179784953304</v>
       </c>
       <c r="D93">
-        <v>20637.3294598186</v>
+        <v>20637.32945981875</v>
       </c>
       <c r="E93">
-        <v>2444.3939493485</v>
+        <v>2444.393949348467</v>
       </c>
       <c r="F93">
-        <v>2024.513107713316</v>
+        <v>2024.513107713297</v>
       </c>
       <c r="G93">
-        <v>5.493723816676392</v>
+        <v>5.493723816676351</v>
       </c>
       <c r="H93">
-        <v>106.590257684462</v>
+        <v>106.5902576844569</v>
       </c>
       <c r="I93">
-        <v>7.115174519101727E-08</v>
+        <v>7.115174519101205E-08</v>
       </c>
       <c r="J93">
-        <v>1.522983717751746E-08</v>
+        <v>1.522983717751726E-08</v>
       </c>
       <c r="K93">
-        <v>5.134278021411762E-05</v>
+        <v>5.134278021411835E-05</v>
       </c>
       <c r="L93">
-        <v>0.04877944183052333</v>
+        <v>0.04877944183052376</v>
       </c>
       <c r="M93">
-        <v>347.6632627807989</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.04877944183052376</v>
+      </c>
+      <c r="N93">
+        <v>347.6632627808038</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>148.2526231936783</v>
+        <v>148.2526231936782</v>
       </c>
       <c r="B94">
-        <v>4604658.643239006</v>
+        <v>4604658.643239101</v>
       </c>
       <c r="C94">
-        <v>7430.063435138447</v>
+        <v>7430.063435139014</v>
       </c>
       <c r="D94">
-        <v>20170.00553267026</v>
+        <v>20170.00553267057</v>
       </c>
       <c r="E94">
-        <v>2265.428923376455</v>
+        <v>2265.428923376369</v>
       </c>
       <c r="F94">
-        <v>1873.987884463273</v>
+        <v>1873.987884463222</v>
       </c>
       <c r="G94">
-        <v>5.532419927919986</v>
+        <v>5.532419927919878</v>
       </c>
       <c r="H94">
-        <v>119.3411604210003</v>
+        <v>119.3411604209861</v>
       </c>
       <c r="I94">
-        <v>8.58451013628599E-08</v>
+        <v>8.584510136284498E-08</v>
       </c>
       <c r="J94">
-        <v>1.59298776013536E-08</v>
+        <v>1.592987760135318E-08</v>
       </c>
       <c r="K94">
-        <v>4.926383598426124E-05</v>
+        <v>4.926383598426264E-05</v>
       </c>
       <c r="L94">
-        <v>0.04746097426300878</v>
+        <v>0.04746097426300958</v>
       </c>
       <c r="M94">
-        <v>335.4418463068589</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.04746097426300958</v>
+      </c>
+      <c r="N94">
+        <v>335.4418463068694</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>149.3206909795248</v>
       </c>
       <c r="B95">
-        <v>4799335.31327223</v>
+        <v>4799335.313272254</v>
       </c>
       <c r="C95">
-        <v>7929.466687758869</v>
+        <v>7929.466687759073</v>
       </c>
       <c r="D95">
-        <v>19672.8938522103</v>
+        <v>19672.89385221048</v>
       </c>
       <c r="E95">
-        <v>2076.941223834923</v>
+        <v>2076.941223834904</v>
       </c>
       <c r="F95">
-        <v>1715.644748661253</v>
+        <v>1715.644748661244</v>
       </c>
       <c r="G95">
-        <v>5.583574920085374</v>
+        <v>5.583574920085316</v>
       </c>
       <c r="H95">
-        <v>136.2656653114136</v>
+        <v>136.2656653114057</v>
       </c>
       <c r="I95">
-        <v>1.061623425437072E-07</v>
+        <v>1.061623425436977E-07</v>
       </c>
       <c r="J95">
-        <v>1.669858305246329E-08</v>
+        <v>1.669858305246304E-08</v>
       </c>
       <c r="K95">
-        <v>4.716778011951042E-05</v>
+        <v>4.716778011951118E-05</v>
       </c>
       <c r="L95">
-        <v>0.04614235306085158</v>
+        <v>0.04614235306085203</v>
       </c>
       <c r="M95">
-        <v>322.8885302706176</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.04614235306085203</v>
+      </c>
+      <c r="N95">
+        <v>322.8885302706229</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>150.3887587653714</v>
+        <v>150.3887587653713</v>
       </c>
       <c r="B96">
-        <v>4999294.538907879</v>
+        <v>4999294.538907794</v>
       </c>
       <c r="C96">
-        <v>8470.237918611405</v>
+        <v>8470.237918610957</v>
       </c>
       <c r="D96">
-        <v>19138.24982323669</v>
+        <v>19138.2498232367</v>
       </c>
       <c r="E96">
-        <v>1876.858656832733</v>
+        <v>1876.858656832833</v>
       </c>
       <c r="F96">
-        <v>1547.859801147971</v>
+        <v>1547.859801148046</v>
       </c>
       <c r="G96">
-        <v>5.649780680270473</v>
+        <v>5.64978068027049</v>
       </c>
       <c r="H96">
-        <v>159.8729565836102</v>
+        <v>159.8729565836124</v>
       </c>
       <c r="I96">
-        <v>1.357562820915119E-07</v>
+        <v>1.357562820915136E-07</v>
       </c>
       <c r="J96">
-        <v>1.755394531145117E-08</v>
+        <v>1.755394531145113E-08</v>
       </c>
       <c r="K96">
-        <v>4.503744780468452E-05</v>
+        <v>4.503744780468455E-05</v>
       </c>
       <c r="L96">
-        <v>0.04481177621406071</v>
+        <v>0.04481177621406075</v>
       </c>
       <c r="M96">
-        <v>309.9235453153896</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.04481177621406075</v>
+      </c>
+      <c r="N96">
+        <v>309.9235453153892</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>151.456826551218</v>
+        <v>151.4568265512178</v>
       </c>
       <c r="B97">
-        <v>5204372.79948025</v>
+        <v>5204372.799480353</v>
       </c>
       <c r="C97">
-        <v>9062.568594813645</v>
+        <v>9062.568594814556</v>
       </c>
       <c r="D97">
-        <v>18553.97534338931</v>
+        <v>18553.97534338986</v>
       </c>
       <c r="E97">
-        <v>1661.533420263287</v>
+        <v>1661.533420263178</v>
       </c>
       <c r="F97">
-        <v>1367.761216146394</v>
+        <v>1367.761216146332</v>
       </c>
       <c r="G97">
-        <v>5.734867600058696</v>
+        <v>5.734867600058466</v>
       </c>
       <c r="H97">
-        <v>195.1827150721144</v>
+        <v>195.1827150720486</v>
       </c>
       <c r="I97">
-        <v>1.821415421027951E-07</v>
+        <v>1.821415421027161E-07</v>
       </c>
       <c r="J97">
-        <v>1.852395471429432E-08</v>
+        <v>1.852395471429348E-08</v>
       </c>
       <c r="K97">
-        <v>4.284565888631361E-05</v>
+        <v>4.284565888631566E-05</v>
       </c>
       <c r="L97">
-        <v>0.04345028884674845</v>
+        <v>0.04345028884674956</v>
       </c>
       <c r="M97">
-        <v>296.4224553066783</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.04345028884674956</v>
+      </c>
+      <c r="N97">
+        <v>296.422455306695</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>152.5248943370645</v>
+        <v>152.5248943370644</v>
       </c>
       <c r="B98">
-        <v>5414378.767462795</v>
+        <v>5414378.767462757</v>
       </c>
       <c r="C98">
-        <v>9725.37661279368</v>
+        <v>9725.376612793396</v>
       </c>
       <c r="D98">
-        <v>17899.41346709201</v>
+        <v>17899.4134670921</v>
       </c>
       <c r="E98">
-        <v>1424.262870230707</v>
+        <v>1424.262870230784</v>
       </c>
       <c r="F98">
-        <v>1170.02514327263</v>
+        <v>1170.025143272694</v>
       </c>
       <c r="G98">
-        <v>5.845027037354958</v>
+        <v>5.845027037354952</v>
       </c>
       <c r="H98">
-        <v>253.9106776886617</v>
+        <v>253.9106776886535</v>
       </c>
       <c r="I98">
-        <v>2.634137265337733E-07</v>
+        <v>2.634137265337605E-07</v>
       </c>
       <c r="J98">
-        <v>1.965640741690821E-08</v>
+        <v>1.965640741690806E-08</v>
       </c>
       <c r="K98">
-        <v>4.054559060979331E-05</v>
+        <v>4.054559060979363E-05</v>
       </c>
       <c r="L98">
-        <v>0.04202568456671655</v>
+        <v>0.04202568456671674</v>
       </c>
       <c r="M98">
-        <v>282.1738999355492</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.04202568456671674</v>
+      </c>
+      <c r="N98">
+        <v>282.1738999355512</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>153.5929621229111</v>
+        <v>153.5929621229109</v>
       </c>
       <c r="B99">
-        <v>5629103.653008573</v>
+        <v>5629103.653008272</v>
       </c>
       <c r="C99">
-        <v>10497.94216857398</v>
+        <v>10497.94216857009</v>
       </c>
       <c r="D99">
-        <v>17133.84032853745</v>
+        <v>17133.84032853526</v>
       </c>
       <c r="E99">
-        <v>1151.325147100668</v>
+        <v>1151.325147101094</v>
       </c>
       <c r="F99">
-        <v>943.6521327225513</v>
+        <v>943.6521327228328</v>
       </c>
       <c r="G99">
-        <v>5.991772208608626</v>
+        <v>5.99177220860954</v>
       </c>
       <c r="H99">
-        <v>371.2140932928233</v>
+        <v>371.2140932935528</v>
       </c>
       <c r="I99">
-        <v>4.358825248414991E-07</v>
+        <v>4.35882524842523E-07</v>
       </c>
       <c r="J99">
-        <v>2.104590871927232E-08</v>
+        <v>2.104590871927608E-08</v>
       </c>
       <c r="K99">
-        <v>3.804442182650599E-05</v>
+        <v>3.80444218264988E-05</v>
       </c>
       <c r="L99">
-        <v>0.04047632345701649</v>
+        <v>0.04047632345701276</v>
       </c>
       <c r="M99">
-        <v>266.763832158588</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.04047632345701276</v>
+      </c>
+      <c r="N99">
+        <v>266.7638321585334</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>154.6610299087576</v>
+        <v>154.6610299087575</v>
       </c>
       <c r="B100">
-        <v>5848331.421230453</v>
+        <v>5848331.421230545</v>
       </c>
       <c r="C100">
-        <v>11485.20983247265</v>
+        <v>11485.20983247532</v>
       </c>
       <c r="D100">
-        <v>16151.22721745303</v>
+        <v>16151.22721745423</v>
       </c>
       <c r="E100">
-        <v>806.4469184475053</v>
+        <v>806.4469184471938</v>
       </c>
       <c r="F100">
-        <v>659.3397393972618</v>
+        <v>659.3397393970367</v>
       </c>
       <c r="G100">
-        <v>6.203083255263696</v>
+        <v>6.203083255263262</v>
       </c>
       <c r="H100">
-        <v>722.8970838917439</v>
+        <v>722.8970838906453</v>
       </c>
       <c r="I100">
-        <v>9.94531285079827E-07</v>
+        <v>9.945312850781126E-07</v>
       </c>
       <c r="J100">
-        <v>2.294075946292479E-08</v>
+        <v>2.29407594629225E-08</v>
       </c>
       <c r="K100">
-        <v>3.509946493848264E-05</v>
+        <v>3.509946493848618E-05</v>
       </c>
       <c r="L100">
-        <v>0.03864941557887797</v>
+        <v>0.03864941557887989</v>
       </c>
       <c r="M100">
-        <v>249.11895537593</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.03864941557887989</v>
+      </c>
+      <c r="N100">
+        <v>249.1189553759544</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>155.7290976946042</v>
+        <v>155.729097694604</v>
       </c>
       <c r="B101">
-        <v>6071846.47977885</v>
+        <v>6071846.481932282</v>
       </c>
       <c r="C101">
-        <v>13866.65125976428</v>
+        <v>13866.2391502384</v>
       </c>
       <c r="D101">
-        <v>13873.54250078105</v>
+        <v>13873.935341965</v>
       </c>
       <c r="E101">
-        <v>1.185116775282917</v>
+        <v>1.323548058205443</v>
       </c>
       <c r="F101">
-        <v>0.9676167764207974</v>
+        <v>1.080642021545637</v>
       </c>
       <c r="G101">
-        <v>6.729088925185516</v>
+        <v>6.729001264123875</v>
       </c>
       <c r="H101">
-        <v>7061898.293616379</v>
+        <v>6308245.404803569</v>
       </c>
       <c r="I101">
-        <v>0.01392814699828579</v>
+        <v>0.01244096331134009</v>
       </c>
       <c r="J101">
-        <v>2.791479583727135E-08</v>
+        <v>2.791385447500993E-08</v>
       </c>
       <c r="K101">
-        <v>2.922290313425407E-05</v>
+        <v>2.92238184627087E-05</v>
       </c>
       <c r="L101">
-        <v>0.03508468423577344</v>
+        <v>0.03508521486254116</v>
       </c>
       <c r="M101">
-        <v>218.2800398764086</v>
+        <v>0.03508521486254116</v>
+      </c>
+      <c r="N101">
+        <v>218.2841341894828</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
